--- a/data/pca/factorExposure/factorExposure_2011-06-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01703012438496646</v>
+        <v>-0.01489820136600762</v>
       </c>
       <c r="C2">
-        <v>0.006300874002932052</v>
+        <v>-0.0004913248574228438</v>
       </c>
       <c r="D2">
-        <v>-0.05703541747172264</v>
+        <v>0.006775804591298588</v>
       </c>
       <c r="E2">
-        <v>0.02588372198642246</v>
+        <v>-0.04341328096137072</v>
       </c>
       <c r="F2">
-        <v>0.03799050265246184</v>
+        <v>-0.001014071372366629</v>
       </c>
       <c r="G2">
-        <v>0.006419199361653378</v>
+        <v>0.02682898663961414</v>
       </c>
       <c r="H2">
-        <v>-0.01014362651091087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.0289404405449502</v>
+      </c>
+      <c r="I2">
+        <v>0.00730456446665928</v>
+      </c>
+      <c r="J2">
+        <v>0.02758657846010795</v>
+      </c>
+      <c r="K2">
+        <v>-0.03466874860690305</v>
+      </c>
+      <c r="L2">
+        <v>-0.04068337404042288</v>
+      </c>
+      <c r="M2">
+        <v>-0.00114176219156398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07905665962381116</v>
+        <v>-0.1097252265721206</v>
       </c>
       <c r="C4">
-        <v>-0.05497100831541171</v>
+        <v>-0.07899290430085619</v>
       </c>
       <c r="D4">
-        <v>-0.03103017737523663</v>
+        <v>0.01881873632515939</v>
       </c>
       <c r="E4">
-        <v>0.04607278341512266</v>
+        <v>-0.05210316983984169</v>
       </c>
       <c r="F4">
-        <v>0.01888164335537082</v>
+        <v>-0.1338838464320177</v>
       </c>
       <c r="G4">
-        <v>0.01185156368640567</v>
+        <v>-0.02407592942345577</v>
       </c>
       <c r="H4">
-        <v>-0.00970395346684863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.03776508195820769</v>
+      </c>
+      <c r="I4">
+        <v>-0.0301166089295275</v>
+      </c>
+      <c r="J4">
+        <v>-0.0008028769598142546</v>
+      </c>
+      <c r="K4">
+        <v>0.09794934004298511</v>
+      </c>
+      <c r="L4">
+        <v>0.01047124003482071</v>
+      </c>
+      <c r="M4">
+        <v>0.04446264403161706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1277757695815974</v>
+        <v>-0.1302518002470356</v>
       </c>
       <c r="C6">
-        <v>-0.03396742009117881</v>
+        <v>-0.04631545600539388</v>
       </c>
       <c r="D6">
-        <v>-0.03602481697610777</v>
+        <v>0.0001467269537835404</v>
       </c>
       <c r="E6">
-        <v>0.05754166227495668</v>
+        <v>-0.005684684170147849</v>
       </c>
       <c r="F6">
-        <v>-0.1107446717244745</v>
+        <v>0.009303818451454598</v>
       </c>
       <c r="G6">
-        <v>-0.002377973755371359</v>
+        <v>-0.1378547684224442</v>
       </c>
       <c r="H6">
-        <v>0.2473696793948768</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.03174345749864503</v>
+      </c>
+      <c r="I6">
+        <v>-0.3502087924680184</v>
+      </c>
+      <c r="J6">
+        <v>-0.2723762753993821</v>
+      </c>
+      <c r="K6">
+        <v>0.1044157516059369</v>
+      </c>
+      <c r="L6">
+        <v>-0.07118954388174027</v>
+      </c>
+      <c r="M6">
+        <v>0.01840914535739437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07518786642837266</v>
+        <v>-0.07283283952603829</v>
       </c>
       <c r="C7">
-        <v>-0.05530423708214956</v>
+        <v>-0.07048177321475312</v>
       </c>
       <c r="D7">
-        <v>-0.05576861262406717</v>
+        <v>0.01060199434842395</v>
       </c>
       <c r="E7">
-        <v>0.0456253732544726</v>
+        <v>-0.05528309307542022</v>
       </c>
       <c r="F7">
-        <v>-0.03619835265060142</v>
+        <v>-0.02381242855782701</v>
       </c>
       <c r="G7">
-        <v>0.002815455493039172</v>
+        <v>-0.007148092545255335</v>
       </c>
       <c r="H7">
-        <v>-0.01896583553920354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01229900383698312</v>
+      </c>
+      <c r="I7">
+        <v>0.0352268653294634</v>
+      </c>
+      <c r="J7">
+        <v>0.0549168088604314</v>
+      </c>
+      <c r="K7">
+        <v>0.09388700871524425</v>
+      </c>
+      <c r="L7">
+        <v>0.01901029018440311</v>
+      </c>
+      <c r="M7">
+        <v>-0.02681363333454442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03044360945053115</v>
+        <v>-0.04213817577887664</v>
       </c>
       <c r="C8">
-        <v>-0.01101568937138595</v>
+        <v>-0.01303254360543427</v>
       </c>
       <c r="D8">
-        <v>-0.04779168604329282</v>
+        <v>0.01108942610499489</v>
       </c>
       <c r="E8">
-        <v>0.05142615099474655</v>
+        <v>-0.04401549424209633</v>
       </c>
       <c r="F8">
-        <v>0.01384602111299589</v>
+        <v>-0.1058161003522914</v>
       </c>
       <c r="G8">
-        <v>0.04863055603593859</v>
+        <v>-0.0003245671284675652</v>
       </c>
       <c r="H8">
-        <v>-0.0187291538226422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.001364203869325408</v>
+      </c>
+      <c r="I8">
+        <v>-0.0332435628457337</v>
+      </c>
+      <c r="J8">
+        <v>0.00576445002022935</v>
+      </c>
+      <c r="K8">
+        <v>0.08217638395338452</v>
+      </c>
+      <c r="L8">
+        <v>-0.03341001199621633</v>
+      </c>
+      <c r="M8">
+        <v>0.04782814434522192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07719251069149463</v>
+        <v>-0.08559685536002054</v>
       </c>
       <c r="C9">
-        <v>-0.06200139619788758</v>
+        <v>-0.07303944829428</v>
       </c>
       <c r="D9">
-        <v>-0.03605933640862063</v>
+        <v>-0.0004879447332135979</v>
       </c>
       <c r="E9">
-        <v>0.04373073686628168</v>
+        <v>-0.03395709625737916</v>
       </c>
       <c r="F9">
-        <v>0.03056045130557735</v>
+        <v>-0.128203759270969</v>
       </c>
       <c r="G9">
-        <v>0.01254098513826789</v>
+        <v>-0.02916408732047338</v>
       </c>
       <c r="H9">
-        <v>-0.000347886618987514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.01659823847394898</v>
+      </c>
+      <c r="I9">
+        <v>-0.008916795349658472</v>
+      </c>
+      <c r="J9">
+        <v>0.0111360069478238</v>
+      </c>
+      <c r="K9">
+        <v>0.06830450076996659</v>
+      </c>
+      <c r="L9">
+        <v>-0.009716026400940603</v>
+      </c>
+      <c r="M9">
+        <v>-0.01338957768232561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06280297587299914</v>
+        <v>-0.1130778202222191</v>
       </c>
       <c r="C10">
-        <v>0.1417137390683654</v>
+        <v>0.1659794235094208</v>
       </c>
       <c r="D10">
-        <v>-0.06992603381736484</v>
+        <v>0.007069715932434622</v>
       </c>
       <c r="E10">
-        <v>0.04316340279800227</v>
+        <v>-0.05383075875170976</v>
       </c>
       <c r="F10">
-        <v>-0.03819090396655546</v>
+        <v>0.01197553131636584</v>
       </c>
       <c r="G10">
-        <v>0.002685502097956436</v>
+        <v>-0.01848847874513994</v>
       </c>
       <c r="H10">
-        <v>0.01355381574381705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.02423331336631882</v>
+      </c>
+      <c r="I10">
+        <v>0.03387489764919138</v>
+      </c>
+      <c r="J10">
+        <v>-0.004823589047597126</v>
+      </c>
+      <c r="K10">
+        <v>-0.01692828516790951</v>
+      </c>
+      <c r="L10">
+        <v>0.03274487374915069</v>
+      </c>
+      <c r="M10">
+        <v>-0.1318859488595066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07264389450986398</v>
+        <v>-0.06878483801854643</v>
       </c>
       <c r="C11">
-        <v>-0.08576963351621299</v>
+        <v>-0.07669487960975258</v>
       </c>
       <c r="D11">
-        <v>-0.03000500229724328</v>
+        <v>-0.02830388663112064</v>
       </c>
       <c r="E11">
-        <v>0.006962632877364335</v>
+        <v>-0.0115564281989089</v>
       </c>
       <c r="F11">
-        <v>0.05273682608096224</v>
+        <v>-0.1191007492412217</v>
       </c>
       <c r="G11">
-        <v>0.06863029785409071</v>
+        <v>-0.01908670599997489</v>
       </c>
       <c r="H11">
-        <v>-0.04529895362656777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.04687712311202313</v>
+      </c>
+      <c r="I11">
+        <v>0.0510016231846841</v>
+      </c>
+      <c r="J11">
+        <v>0.0723629506177821</v>
+      </c>
+      <c r="K11">
+        <v>-0.01119776628543307</v>
+      </c>
+      <c r="L11">
+        <v>-0.03743563219604354</v>
+      </c>
+      <c r="M11">
+        <v>-0.1289047650039258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07237282990004039</v>
+        <v>-0.06935108479954791</v>
       </c>
       <c r="C12">
-        <v>-0.06121067680159655</v>
+        <v>-0.06870417679814017</v>
       </c>
       <c r="D12">
-        <v>-0.02094140620219751</v>
+        <v>-0.0278785335936692</v>
       </c>
       <c r="E12">
-        <v>0.03443320031290136</v>
+        <v>-0.003035842481975429</v>
       </c>
       <c r="F12">
-        <v>0.003528231340988501</v>
+        <v>-0.1220631565390548</v>
       </c>
       <c r="G12">
-        <v>0.0492542164746523</v>
+        <v>-0.0174874639592211</v>
       </c>
       <c r="H12">
-        <v>-0.03941963095811107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.04426461106751464</v>
+      </c>
+      <c r="I12">
+        <v>0.0192935417107899</v>
+      </c>
+      <c r="J12">
+        <v>0.09190323688971938</v>
+      </c>
+      <c r="K12">
+        <v>0.01729865943451951</v>
+      </c>
+      <c r="L12">
+        <v>-0.04155784599438212</v>
+      </c>
+      <c r="M12">
+        <v>-0.1531135415559371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05799131001981306</v>
+        <v>-0.04527099249589588</v>
       </c>
       <c r="C13">
-        <v>-0.01275006902244985</v>
+        <v>-0.03271839592980664</v>
       </c>
       <c r="D13">
-        <v>0.00133642914857401</v>
+        <v>0.02167918844619968</v>
       </c>
       <c r="E13">
-        <v>0.02067856178365096</v>
+        <v>-0.01143651110121563</v>
       </c>
       <c r="F13">
-        <v>0.05268894835035225</v>
+        <v>-0.04053796706810584</v>
       </c>
       <c r="G13">
-        <v>-0.01543891652430536</v>
+        <v>0.007190605196900559</v>
       </c>
       <c r="H13">
-        <v>0.01096358299978492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01223272748713613</v>
+      </c>
+      <c r="I13">
+        <v>-0.003912351316792482</v>
+      </c>
+      <c r="J13">
+        <v>-0.003528043182551446</v>
+      </c>
+      <c r="K13">
+        <v>0.03368704652177378</v>
+      </c>
+      <c r="L13">
+        <v>0.02842524833158998</v>
+      </c>
+      <c r="M13">
+        <v>0.03222208701801864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.05392009311216094</v>
+        <v>-0.04112458943964886</v>
       </c>
       <c r="C14">
-        <v>-0.02239229555161289</v>
+        <v>-0.0313563428435075</v>
       </c>
       <c r="D14">
-        <v>-0.0239827097883381</v>
+        <v>-0.01364064391586302</v>
       </c>
       <c r="E14">
-        <v>0.02416432168466154</v>
+        <v>-0.01784433170488403</v>
       </c>
       <c r="F14">
-        <v>-0.01590767708300476</v>
+        <v>-0.06429401483480345</v>
       </c>
       <c r="G14">
-        <v>0.02034463876439124</v>
+        <v>0.008802633454761078</v>
       </c>
       <c r="H14">
-        <v>0.0682725081311316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03985781775948834</v>
+      </c>
+      <c r="I14">
+        <v>0.003586003059185127</v>
+      </c>
+      <c r="J14">
+        <v>-0.03321107103665203</v>
+      </c>
+      <c r="K14">
+        <v>0.09102872698832973</v>
+      </c>
+      <c r="L14">
+        <v>0.01834485598603197</v>
+      </c>
+      <c r="M14">
+        <v>0.005268841397540703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03801143958296845</v>
+        <v>-0.0256698606899477</v>
       </c>
       <c r="C15">
-        <v>0.004044393489771652</v>
+        <v>-0.01004517079686676</v>
       </c>
       <c r="D15">
-        <v>0.005137609299161914</v>
+        <v>0.05562153567505567</v>
       </c>
       <c r="E15">
-        <v>0.02286427505395568</v>
+        <v>-0.003235950041018692</v>
       </c>
       <c r="F15">
-        <v>0.004414984559244126</v>
+        <v>0.001664075834162672</v>
       </c>
       <c r="G15">
-        <v>-0.01046815992934148</v>
+        <v>-0.03802369605141628</v>
       </c>
       <c r="H15">
-        <v>0.007943343726759053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03876856645302709</v>
+      </c>
+      <c r="I15">
+        <v>0.003750723724422071</v>
+      </c>
+      <c r="J15">
+        <v>-0.02160662142076976</v>
+      </c>
+      <c r="K15">
+        <v>0.06528361866491871</v>
+      </c>
+      <c r="L15">
+        <v>0.03198931567704712</v>
+      </c>
+      <c r="M15">
+        <v>-0.01088498219752597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06368179066778812</v>
+        <v>-0.07261336272098562</v>
       </c>
       <c r="C16">
-        <v>-0.08343606024990093</v>
+        <v>-0.08252898003515102</v>
       </c>
       <c r="D16">
-        <v>-0.02706932181551158</v>
+        <v>-0.01798440320477284</v>
       </c>
       <c r="E16">
-        <v>0.03395100020205335</v>
+        <v>-0.01211960254958237</v>
       </c>
       <c r="F16">
-        <v>0.04629641778067583</v>
+        <v>-0.1170338044676397</v>
       </c>
       <c r="G16">
-        <v>0.04292810775919809</v>
+        <v>-0.004044101460904919</v>
       </c>
       <c r="H16">
-        <v>-0.03747437461153095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.04051889177084098</v>
+      </c>
+      <c r="I16">
+        <v>0.03452967783146065</v>
+      </c>
+      <c r="J16">
+        <v>0.08129423843803688</v>
+      </c>
+      <c r="K16">
+        <v>0.01996267487057534</v>
+      </c>
+      <c r="L16">
+        <v>-0.04590860970374539</v>
+      </c>
+      <c r="M16">
+        <v>-0.1309791046393615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04531214027244037</v>
+        <v>-0.04615646240398578</v>
       </c>
       <c r="C20">
-        <v>-0.04608163506725486</v>
+        <v>-0.03298263529623462</v>
       </c>
       <c r="D20">
-        <v>-0.01237472197298833</v>
+        <v>0.0260605438204126</v>
       </c>
       <c r="E20">
-        <v>0.02130653723672188</v>
+        <v>-0.01890815298973056</v>
       </c>
       <c r="F20">
-        <v>0.0253357529000431</v>
+        <v>-0.06737803584191032</v>
       </c>
       <c r="G20">
-        <v>0.02018309996149024</v>
+        <v>0.006862262620974652</v>
       </c>
       <c r="H20">
-        <v>-0.003019751288647258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01282516364245488</v>
+      </c>
+      <c r="I20">
+        <v>-0.003930665807631375</v>
+      </c>
+      <c r="J20">
+        <v>0.01352049600939532</v>
+      </c>
+      <c r="K20">
+        <v>0.08795854673273774</v>
+      </c>
+      <c r="L20">
+        <v>-0.006673284716287679</v>
+      </c>
+      <c r="M20">
+        <v>-0.02198188493137307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02324582596718228</v>
+        <v>-0.02475952455985979</v>
       </c>
       <c r="C21">
-        <v>-0.03383311959862041</v>
+        <v>-0.02752180283679972</v>
       </c>
       <c r="D21">
-        <v>-3.222301136799699e-05</v>
+        <v>0.007485185823894144</v>
       </c>
       <c r="E21">
-        <v>0.05745108864563411</v>
+        <v>-0.02393676303699086</v>
       </c>
       <c r="F21">
-        <v>-0.06942551698658694</v>
+        <v>-0.05211886088691915</v>
       </c>
       <c r="G21">
-        <v>0.00805275076546551</v>
+        <v>-0.1051886093204693</v>
       </c>
       <c r="H21">
-        <v>0.001912212283025567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.06658860117631221</v>
+      </c>
+      <c r="I21">
+        <v>0.0124423176241432</v>
+      </c>
+      <c r="J21">
+        <v>-0.0242483976247564</v>
+      </c>
+      <c r="K21">
+        <v>0.07095930578666368</v>
+      </c>
+      <c r="L21">
+        <v>0.06017407385332532</v>
+      </c>
+      <c r="M21">
+        <v>-0.0358486565877383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01328715005610244</v>
+        <v>-0.0419306106398185</v>
       </c>
       <c r="C22">
-        <v>-0.03542376837437795</v>
+        <v>-0.02175964810782577</v>
       </c>
       <c r="D22">
-        <v>0.1067953794756318</v>
+        <v>0.6566639877610024</v>
       </c>
       <c r="E22">
-        <v>0.5099594534252317</v>
+        <v>-0.03690089981157092</v>
       </c>
       <c r="F22">
-        <v>0.09939179582720897</v>
+        <v>0.05266951489267462</v>
       </c>
       <c r="G22">
-        <v>-0.2862836776179087</v>
+        <v>0.1046125792367278</v>
       </c>
       <c r="H22">
-        <v>-0.1869928301383615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1371640485183362</v>
+      </c>
+      <c r="I22">
+        <v>0.0102320591609132</v>
+      </c>
+      <c r="J22">
+        <v>-0.02158317490565419</v>
+      </c>
+      <c r="K22">
+        <v>-0.02681790688377529</v>
+      </c>
+      <c r="L22">
+        <v>-0.00108368670798737</v>
+      </c>
+      <c r="M22">
+        <v>-0.002485309314598443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01199300274908348</v>
+        <v>-0.0421555066904634</v>
       </c>
       <c r="C23">
-        <v>-0.03386598457110589</v>
+        <v>-0.02194146117484096</v>
       </c>
       <c r="D23">
-        <v>0.1064274968264264</v>
+        <v>0.6581500113414612</v>
       </c>
       <c r="E23">
-        <v>0.508689613601538</v>
+        <v>-0.03743582995381672</v>
       </c>
       <c r="F23">
-        <v>0.09865856180120013</v>
+        <v>0.04976448925761325</v>
       </c>
       <c r="G23">
-        <v>-0.2865894099188607</v>
+        <v>0.1052645576945341</v>
       </c>
       <c r="H23">
-        <v>-0.1844531931635358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1356250075204369</v>
+      </c>
+      <c r="I23">
+        <v>0.007190794896663944</v>
+      </c>
+      <c r="J23">
+        <v>-0.02294189228029272</v>
+      </c>
+      <c r="K23">
+        <v>-0.02758124068122177</v>
+      </c>
+      <c r="L23">
+        <v>-0.003243348971090594</v>
+      </c>
+      <c r="M23">
+        <v>-0.002293622831649415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.078383676755822</v>
+        <v>-0.0770436285139787</v>
       </c>
       <c r="C24">
-        <v>-0.07548845904983754</v>
+        <v>-0.07994577742416151</v>
       </c>
       <c r="D24">
-        <v>-0.03236677316337228</v>
+        <v>-0.01371413069161796</v>
       </c>
       <c r="E24">
-        <v>0.03731079641582365</v>
+        <v>-0.01562036402341086</v>
       </c>
       <c r="F24">
-        <v>0.03218683655646306</v>
+        <v>-0.1167958611644592</v>
       </c>
       <c r="G24">
-        <v>0.04746105182304445</v>
+        <v>-0.01397968709667903</v>
       </c>
       <c r="H24">
-        <v>-0.02692689031277749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.0397910711357669</v>
+      </c>
+      <c r="I24">
+        <v>0.03154109128085546</v>
+      </c>
+      <c r="J24">
+        <v>0.0634783685158879</v>
+      </c>
+      <c r="K24">
+        <v>-0.006400563137124087</v>
+      </c>
+      <c r="L24">
+        <v>-0.05060939016278819</v>
+      </c>
+      <c r="M24">
+        <v>-0.1223181838354766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06880150548587759</v>
+        <v>-0.07334169180194902</v>
       </c>
       <c r="C25">
-        <v>-0.04272547616063566</v>
+        <v>-0.054955411468364</v>
       </c>
       <c r="D25">
-        <v>-0.02917080428552484</v>
+        <v>-0.0321954598300627</v>
       </c>
       <c r="E25">
-        <v>0.04311831392671789</v>
+        <v>-0.01290296078476961</v>
       </c>
       <c r="F25">
-        <v>0.04527422462737255</v>
+        <v>-0.1250384319962776</v>
       </c>
       <c r="G25">
-        <v>0.05787429797546879</v>
+        <v>-0.001446106110695212</v>
       </c>
       <c r="H25">
-        <v>-0.001754851255628778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.0354633046635526</v>
+      </c>
+      <c r="I25">
+        <v>0.03403955194458396</v>
+      </c>
+      <c r="J25">
+        <v>0.05947869418716404</v>
+      </c>
+      <c r="K25">
+        <v>-0.009239518613763488</v>
+      </c>
+      <c r="L25">
+        <v>-0.07232561479887348</v>
+      </c>
+      <c r="M25">
+        <v>-0.1308826052021334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04446556373691735</v>
+        <v>-0.04345512463629239</v>
       </c>
       <c r="C26">
-        <v>-0.03798573792439815</v>
+        <v>-0.02000624955314161</v>
       </c>
       <c r="D26">
-        <v>-0.03851582557316344</v>
+        <v>0.0137956644345941</v>
       </c>
       <c r="E26">
-        <v>0.002927279949687497</v>
+        <v>-0.0002075667445437024</v>
       </c>
       <c r="F26">
-        <v>0.00706229677690292</v>
+        <v>-0.0373434643285082</v>
       </c>
       <c r="G26">
-        <v>-0.02278973497456037</v>
+        <v>-0.002143177178088773</v>
       </c>
       <c r="H26">
-        <v>-0.01376929718471707</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.0003854368320107619</v>
+      </c>
+      <c r="I26">
+        <v>0.02116196652686685</v>
+      </c>
+      <c r="J26">
+        <v>-0.01001718148305814</v>
+      </c>
+      <c r="K26">
+        <v>0.1199666696454065</v>
+      </c>
+      <c r="L26">
+        <v>0.09474604321950779</v>
+      </c>
+      <c r="M26">
+        <v>-0.009363503223635819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1048931361613949</v>
+        <v>-0.147882067907057</v>
       </c>
       <c r="C28">
-        <v>0.2957397736013355</v>
+        <v>0.2832185912614047</v>
       </c>
       <c r="D28">
-        <v>-0.05047483682552752</v>
+        <v>-0.01067458890774448</v>
       </c>
       <c r="E28">
-        <v>-0.0006660943753526417</v>
+        <v>-0.02456446927855587</v>
       </c>
       <c r="F28">
-        <v>-0.04904128704917939</v>
+        <v>-0.003942767948630916</v>
       </c>
       <c r="G28">
-        <v>-0.004110382941352689</v>
+        <v>-0.007372909511970797</v>
       </c>
       <c r="H28">
-        <v>-0.05830162566994197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01937055472129467</v>
+      </c>
+      <c r="I28">
+        <v>-0.01569124988922557</v>
+      </c>
+      <c r="J28">
+        <v>0.01642934156342822</v>
+      </c>
+      <c r="K28">
+        <v>0.02051470979551969</v>
+      </c>
+      <c r="L28">
+        <v>0.02572968593108858</v>
+      </c>
+      <c r="M28">
+        <v>0.01426446163247376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05313977268417967</v>
+        <v>-0.04010849454938894</v>
       </c>
       <c r="C29">
-        <v>-0.02015165120939149</v>
+        <v>-0.0293400123332392</v>
       </c>
       <c r="D29">
-        <v>-0.01251917530195704</v>
+        <v>-0.002353776130960904</v>
       </c>
       <c r="E29">
-        <v>0.02679998147718534</v>
+        <v>-0.02135355919496977</v>
       </c>
       <c r="F29">
-        <v>0.006395648429269768</v>
+        <v>-0.05659660520150325</v>
       </c>
       <c r="G29">
-        <v>-0.00958920461479679</v>
+        <v>0.01023936912136784</v>
       </c>
       <c r="H29">
-        <v>0.004549585562776856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01858380619296074</v>
+      </c>
+      <c r="I29">
+        <v>0.002183194569669871</v>
+      </c>
+      <c r="J29">
+        <v>-0.01832528052918703</v>
+      </c>
+      <c r="K29">
+        <v>0.08117616988139741</v>
+      </c>
+      <c r="L29">
+        <v>0.01570099258179353</v>
+      </c>
+      <c r="M29">
+        <v>-0.01708428896127147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.130097391642308</v>
+        <v>-0.104434205748987</v>
       </c>
       <c r="C30">
-        <v>-0.05595261490900813</v>
+        <v>-0.06547031266784674</v>
       </c>
       <c r="D30">
-        <v>-0.05666728394999182</v>
+        <v>0.003782268183731429</v>
       </c>
       <c r="E30">
-        <v>0.1292836144645829</v>
+        <v>-0.02658797954938052</v>
       </c>
       <c r="F30">
-        <v>-0.005758797556968137</v>
+        <v>-0.2113198203902344</v>
       </c>
       <c r="G30">
-        <v>0.1654628004709316</v>
+        <v>0.03780153435826528</v>
       </c>
       <c r="H30">
-        <v>-0.03145692781475747</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2411679321714353</v>
+      </c>
+      <c r="I30">
+        <v>-0.09838706990522915</v>
+      </c>
+      <c r="J30">
+        <v>0.01817610287741064</v>
+      </c>
+      <c r="K30">
+        <v>0.1653784428364606</v>
+      </c>
+      <c r="L30">
+        <v>0.02514676722170878</v>
+      </c>
+      <c r="M30">
+        <v>0.4019840330632667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.0499871936165658</v>
+        <v>-0.03527219918984034</v>
       </c>
       <c r="C31">
-        <v>-0.02597768202676841</v>
+        <v>-0.04703241148960598</v>
       </c>
       <c r="D31">
-        <v>0.007548589701683249</v>
+        <v>0.00523128542053167</v>
       </c>
       <c r="E31">
-        <v>-0.00222449828922975</v>
+        <v>0.007674581412443346</v>
       </c>
       <c r="F31">
-        <v>0.01034781965380727</v>
+        <v>-0.0258328567430167</v>
       </c>
       <c r="G31">
-        <v>-0.03760266638628036</v>
+        <v>0.01843766236391431</v>
       </c>
       <c r="H31">
-        <v>0.00997405866792915</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04332007808742594</v>
+      </c>
+      <c r="I31">
+        <v>0.01053276851327339</v>
+      </c>
+      <c r="J31">
+        <v>0.008864891023345815</v>
+      </c>
+      <c r="K31">
+        <v>0.03695238944258994</v>
+      </c>
+      <c r="L31">
+        <v>-0.01584240001203577</v>
+      </c>
+      <c r="M31">
+        <v>-0.001744936093874129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.0206424458883804</v>
+        <v>-0.0450648483829782</v>
       </c>
       <c r="C32">
-        <v>0.01537584589419622</v>
+        <v>0.002312902347400586</v>
       </c>
       <c r="D32">
-        <v>0.01144047407610452</v>
+        <v>-0.01526315570037058</v>
       </c>
       <c r="E32">
-        <v>0.08546182804592231</v>
+        <v>0.001668977716759791</v>
       </c>
       <c r="F32">
-        <v>0.07991627726459136</v>
+        <v>-0.09050535864421072</v>
       </c>
       <c r="G32">
-        <v>0.02672413294956371</v>
+        <v>-0.01692029193898882</v>
       </c>
       <c r="H32">
-        <v>-0.03386216774875257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.0489615727250617</v>
+      </c>
+      <c r="I32">
+        <v>0.06324491189359645</v>
+      </c>
+      <c r="J32">
+        <v>0.04113280263718202</v>
+      </c>
+      <c r="K32">
+        <v>0.0373671933258185</v>
+      </c>
+      <c r="L32">
+        <v>-0.003683966644475588</v>
+      </c>
+      <c r="M32">
+        <v>0.1669246203461989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1027007406000404</v>
+        <v>-0.1002386250751153</v>
       </c>
       <c r="C33">
-        <v>-0.04462929430863617</v>
+        <v>-0.06972579467325402</v>
       </c>
       <c r="D33">
-        <v>-0.005041755221627545</v>
+        <v>-0.01240331842925668</v>
       </c>
       <c r="E33">
-        <v>0.01942837704803158</v>
+        <v>0.01396587699196712</v>
       </c>
       <c r="F33">
-        <v>0.05279403979057042</v>
+        <v>-0.07772889107983952</v>
       </c>
       <c r="G33">
-        <v>0.01190887849321708</v>
+        <v>0.02221352421497948</v>
       </c>
       <c r="H33">
-        <v>-0.00190699552276295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.0110496171124703</v>
+      </c>
+      <c r="I33">
+        <v>0.01455810151404271</v>
+      </c>
+      <c r="J33">
+        <v>-0.05205244549157637</v>
+      </c>
+      <c r="K33">
+        <v>0.03345556580017728</v>
+      </c>
+      <c r="L33">
+        <v>0.00563993187002733</v>
+      </c>
+      <c r="M33">
+        <v>-0.009461140507442992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05645156534450983</v>
+        <v>-0.0638668960777693</v>
       </c>
       <c r="C34">
-        <v>-0.07807634516242742</v>
+        <v>-0.06849187223198801</v>
       </c>
       <c r="D34">
-        <v>-0.01891594842888417</v>
+        <v>-0.0211455979927803</v>
       </c>
       <c r="E34">
-        <v>0.02138013523630922</v>
+        <v>-0.00762261804571349</v>
       </c>
       <c r="F34">
-        <v>0.03095093473905657</v>
+        <v>-0.1046099308592551</v>
       </c>
       <c r="G34">
-        <v>0.03107200006243794</v>
+        <v>-0.01197185397026622</v>
       </c>
       <c r="H34">
-        <v>-0.02457039131459232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.01615920553594134</v>
+      </c>
+      <c r="I34">
+        <v>0.04435550361593184</v>
+      </c>
+      <c r="J34">
+        <v>0.069968927966815</v>
+      </c>
+      <c r="K34">
+        <v>0.02363933959252811</v>
+      </c>
+      <c r="L34">
+        <v>-0.04438554760332536</v>
+      </c>
+      <c r="M34">
+        <v>-0.1374680744225843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04511369266431107</v>
+        <v>-0.02660369720587059</v>
       </c>
       <c r="C35">
-        <v>-0.04517987907598107</v>
+        <v>-0.02675757111999946</v>
       </c>
       <c r="D35">
-        <v>-0.006200263141385731</v>
+        <v>-0.0007389133146092598</v>
       </c>
       <c r="E35">
-        <v>0.01808740634827384</v>
+        <v>0.001777923800335149</v>
       </c>
       <c r="F35">
-        <v>0.009144851844969841</v>
+        <v>-0.03498264916252753</v>
       </c>
       <c r="G35">
-        <v>0.01900238998268578</v>
+        <v>0.006711836951616291</v>
       </c>
       <c r="H35">
-        <v>0.006228127330206773</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01916963014927868</v>
+      </c>
+      <c r="I35">
+        <v>0.02860471703518385</v>
+      </c>
+      <c r="J35">
+        <v>0.04054431812870136</v>
+      </c>
+      <c r="K35">
+        <v>0.07020782999624534</v>
+      </c>
+      <c r="L35">
+        <v>-0.001123221417061694</v>
+      </c>
+      <c r="M35">
+        <v>-0.003607381713233586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.0369511432211581</v>
+        <v>-0.02816155957859163</v>
       </c>
       <c r="C36">
-        <v>-0.02209428846807215</v>
+        <v>-0.02064149820939762</v>
       </c>
       <c r="D36">
-        <v>-0.02647669556033513</v>
+        <v>0.01399864919444873</v>
       </c>
       <c r="E36">
-        <v>0.03874580944572656</v>
+        <v>-0.01284458944853487</v>
       </c>
       <c r="F36">
-        <v>0.03123628704024595</v>
+        <v>-0.06497009682435459</v>
       </c>
       <c r="G36">
-        <v>0.01095737494271534</v>
+        <v>-0.004526118061023515</v>
       </c>
       <c r="H36">
-        <v>0.02458723786130074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.0004415372432773944</v>
+      </c>
+      <c r="I36">
+        <v>-0.01486489741353263</v>
+      </c>
+      <c r="J36">
+        <v>-0.0194744171053326</v>
+      </c>
+      <c r="K36">
+        <v>0.05658344247710208</v>
+      </c>
+      <c r="L36">
+        <v>0.01607568725935494</v>
+      </c>
+      <c r="M36">
+        <v>-0.0446903311946517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04570965398361687</v>
+        <v>-0.02826896890976481</v>
       </c>
       <c r="C38">
-        <v>-0.03515538549422018</v>
+        <v>-0.04780264907459593</v>
       </c>
       <c r="D38">
-        <v>0.01628386573756486</v>
+        <v>0.0254051885084984</v>
       </c>
       <c r="E38">
-        <v>0.04169849601609903</v>
+        <v>-0.004520838479906041</v>
       </c>
       <c r="F38">
-        <v>0.04776225868650555</v>
+        <v>0.04968879014130978</v>
       </c>
       <c r="G38">
-        <v>0.002816805938211096</v>
+        <v>0.0565661046575052</v>
       </c>
       <c r="H38">
-        <v>-0.0539839011194027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.02150648856974499</v>
+      </c>
+      <c r="I38">
+        <v>0.01918274351198484</v>
+      </c>
+      <c r="J38">
+        <v>-0.04059358592630655</v>
+      </c>
+      <c r="K38">
+        <v>0.006694153742719323</v>
+      </c>
+      <c r="L38">
+        <v>0.1185879206608159</v>
+      </c>
+      <c r="M38">
+        <v>0.08888634451216069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.1002351941558176</v>
+        <v>-0.1039755566343431</v>
       </c>
       <c r="C39">
-        <v>-0.09224208973250257</v>
+        <v>-0.09692064249895609</v>
       </c>
       <c r="D39">
-        <v>-0.009176797736584431</v>
+        <v>-0.08228708814793852</v>
       </c>
       <c r="E39">
-        <v>0.03632037982015982</v>
+        <v>0.03116050898272687</v>
       </c>
       <c r="F39">
-        <v>0.02787126079161914</v>
+        <v>-0.1764634315488146</v>
       </c>
       <c r="G39">
-        <v>0.08579679941921113</v>
+        <v>0.06837431824098784</v>
       </c>
       <c r="H39">
-        <v>-0.09564549834173984</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1282849003114997</v>
+      </c>
+      <c r="I39">
+        <v>0.02307734549848059</v>
+      </c>
+      <c r="J39">
+        <v>0.1781443095855809</v>
+      </c>
+      <c r="K39">
+        <v>-0.009258855285246254</v>
+      </c>
+      <c r="L39">
+        <v>-0.1028598141929252</v>
+      </c>
+      <c r="M39">
+        <v>0.02016279820723271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04081706548579516</v>
+        <v>-0.03177450795823344</v>
       </c>
       <c r="C40">
-        <v>-0.03345005356799232</v>
+        <v>-0.05977528183306458</v>
       </c>
       <c r="D40">
-        <v>0.05379508287104282</v>
+        <v>0.04786481821671325</v>
       </c>
       <c r="E40">
-        <v>0.1211504781164933</v>
+        <v>-0.006653531883468338</v>
       </c>
       <c r="F40">
-        <v>0.07501323016723992</v>
+        <v>-0.1040855190364012</v>
       </c>
       <c r="G40">
-        <v>0.07552701942476159</v>
+        <v>-0.08136109365558716</v>
       </c>
       <c r="H40">
-        <v>-0.09576600204147896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.0436158339354568</v>
+      </c>
+      <c r="I40">
+        <v>0.04994791055571536</v>
+      </c>
+      <c r="J40">
+        <v>-0.0272555229480159</v>
+      </c>
+      <c r="K40">
+        <v>0.002271610920057161</v>
+      </c>
+      <c r="L40">
+        <v>0.1400417793753355</v>
+      </c>
+      <c r="M40">
+        <v>0.06437016044710482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04567825755865539</v>
+        <v>-0.03858728665327404</v>
       </c>
       <c r="C41">
-        <v>-0.04943238755914545</v>
+        <v>-0.03724627791575393</v>
       </c>
       <c r="D41">
-        <v>-0.006098145503045055</v>
+        <v>-0.01390914770075131</v>
       </c>
       <c r="E41">
-        <v>0.00188713578883216</v>
+        <v>0.003185695977292977</v>
       </c>
       <c r="F41">
-        <v>0.02989185695252385</v>
+        <v>-0.0202188547964674</v>
       </c>
       <c r="G41">
-        <v>0.005096884301100086</v>
+        <v>0.01832335897301206</v>
       </c>
       <c r="H41">
-        <v>-0.02134734972057834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.002067183713602663</v>
+      </c>
+      <c r="I41">
+        <v>0.02460481909772764</v>
+      </c>
+      <c r="J41">
+        <v>0.02676152174117818</v>
+      </c>
+      <c r="K41">
+        <v>0.03753591923609299</v>
+      </c>
+      <c r="L41">
+        <v>0.03022058557577403</v>
+      </c>
+      <c r="M41">
+        <v>-0.03381537972727459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05925718460901555</v>
+        <v>-0.0495486573277088</v>
       </c>
       <c r="C43">
-        <v>-0.03867857867108362</v>
+        <v>-0.04493037414999505</v>
       </c>
       <c r="D43">
-        <v>-0.02736456533054802</v>
+        <v>0.01327146373401664</v>
       </c>
       <c r="E43">
-        <v>0.03116622302234044</v>
+        <v>-0.00988610228598724</v>
       </c>
       <c r="F43">
-        <v>0.01377098212850612</v>
+        <v>-0.01250393373854857</v>
       </c>
       <c r="G43">
-        <v>-0.01409965409100851</v>
+        <v>0.04496208053928726</v>
       </c>
       <c r="H43">
-        <v>-0.02156785679313255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.005973103320703728</v>
+      </c>
+      <c r="I43">
+        <v>-0.008166207748401317</v>
+      </c>
+      <c r="J43">
+        <v>0.03533847811173777</v>
+      </c>
+      <c r="K43">
+        <v>0.03005709813995826</v>
+      </c>
+      <c r="L43">
+        <v>0.006600540501445273</v>
+      </c>
+      <c r="M43">
+        <v>-0.03944317241651054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04643325835882667</v>
+        <v>-0.08294270469398768</v>
       </c>
       <c r="C44">
-        <v>-0.01212481914705513</v>
+        <v>-0.05796123202206235</v>
       </c>
       <c r="D44">
-        <v>-0.07511388677128253</v>
+        <v>0.07985212130543543</v>
       </c>
       <c r="E44">
-        <v>0.09724700210281279</v>
+        <v>-0.1072874897779931</v>
       </c>
       <c r="F44">
-        <v>0.0438910843370714</v>
+        <v>-0.1722453558528003</v>
       </c>
       <c r="G44">
-        <v>0.1096076123719633</v>
+        <v>-0.01111387639134943</v>
       </c>
       <c r="H44">
-        <v>-0.01308717839954361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.03339353738658836</v>
+      </c>
+      <c r="I44">
+        <v>0.06714701617365715</v>
+      </c>
+      <c r="J44">
+        <v>0.02449566626257834</v>
+      </c>
+      <c r="K44">
+        <v>-0.004840686333300238</v>
+      </c>
+      <c r="L44">
+        <v>0.03436179538400078</v>
+      </c>
+      <c r="M44">
+        <v>0.1078149109132397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02269641822925041</v>
+        <v>-0.03354561360510594</v>
       </c>
       <c r="C46">
-        <v>-0.04654706777587268</v>
+        <v>-0.04204796566292195</v>
       </c>
       <c r="D46">
-        <v>-0.01613842090705911</v>
+        <v>0.04020792633779882</v>
       </c>
       <c r="E46">
-        <v>0.03863938305475045</v>
+        <v>-0.03890276170818322</v>
       </c>
       <c r="F46">
-        <v>0.01098055072684843</v>
+        <v>-0.03846151339982343</v>
       </c>
       <c r="G46">
-        <v>-0.00744330724669539</v>
+        <v>-0.01274934730223922</v>
       </c>
       <c r="H46">
-        <v>-0.01249276134209974</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.01558260027325365</v>
+      </c>
+      <c r="I46">
+        <v>0.04157841072517376</v>
+      </c>
+      <c r="J46">
+        <v>-0.03763619964205282</v>
+      </c>
+      <c r="K46">
+        <v>0.1139018083282837</v>
+      </c>
+      <c r="L46">
+        <v>0.01602958333069782</v>
+      </c>
+      <c r="M46">
+        <v>-0.016922899480065</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02352634932318611</v>
+        <v>-0.04159999682440942</v>
       </c>
       <c r="C47">
-        <v>-0.003314411883853624</v>
+        <v>-0.02829870663988767</v>
       </c>
       <c r="D47">
-        <v>0.009494179048596672</v>
+        <v>0.01885028542094471</v>
       </c>
       <c r="E47">
-        <v>0.06545301919780747</v>
+        <v>-0.01408161915119246</v>
       </c>
       <c r="F47">
-        <v>0.02193405595659699</v>
+        <v>-0.03753097191512412</v>
       </c>
       <c r="G47">
-        <v>-0.0007871489079610092</v>
+        <v>0.00620698746275619</v>
       </c>
       <c r="H47">
-        <v>0.03539660633959781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.005468765096985362</v>
+      </c>
+      <c r="I47">
+        <v>-0.01594648369628202</v>
+      </c>
+      <c r="J47">
+        <v>-0.03724542609008698</v>
+      </c>
+      <c r="K47">
+        <v>0.03417557381747389</v>
+      </c>
+      <c r="L47">
+        <v>0.02086958115065673</v>
+      </c>
+      <c r="M47">
+        <v>-0.06194880853444995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03511732759367211</v>
+        <v>-0.04138120357776968</v>
       </c>
       <c r="C48">
-        <v>-0.0264550135522383</v>
+        <v>-0.02211384514420428</v>
       </c>
       <c r="D48">
-        <v>-0.003901024961805471</v>
+        <v>0.01182239402640014</v>
       </c>
       <c r="E48">
-        <v>0.05261259985672594</v>
+        <v>-0.001329495292265761</v>
       </c>
       <c r="F48">
-        <v>0.02554886216378375</v>
+        <v>-0.06944140114762888</v>
       </c>
       <c r="G48">
-        <v>-0.0260968695479147</v>
+        <v>-0.04243716786642851</v>
       </c>
       <c r="H48">
-        <v>-0.00178815380906694</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.005801308353613079</v>
+      </c>
+      <c r="I48">
+        <v>-0.005707577556054904</v>
+      </c>
+      <c r="J48">
+        <v>0.008869102032126619</v>
+      </c>
+      <c r="K48">
+        <v>0.07440310868825147</v>
+      </c>
+      <c r="L48">
+        <v>-0.01027977883527117</v>
+      </c>
+      <c r="M48">
+        <v>-0.03133417874836561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2118446763663708</v>
+        <v>-0.223683356868545</v>
       </c>
       <c r="C49">
-        <v>-0.1281562873143733</v>
+        <v>-0.08215112068564667</v>
       </c>
       <c r="D49">
-        <v>-0.06703667329683233</v>
+        <v>-0.05435203170358751</v>
       </c>
       <c r="E49">
-        <v>-0.05287122928215228</v>
+        <v>-0.03054893186336666</v>
       </c>
       <c r="F49">
-        <v>-0.1810848391757049</v>
+        <v>0.2474068218355096</v>
       </c>
       <c r="G49">
-        <v>0.03919711362755474</v>
+        <v>-0.09840018301040308</v>
       </c>
       <c r="H49">
-        <v>-0.05309775186156237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1750267025045078</v>
+      </c>
+      <c r="I49">
+        <v>0.07970710426109379</v>
+      </c>
+      <c r="J49">
+        <v>-0.001827331207116357</v>
+      </c>
+      <c r="K49">
+        <v>-0.1476425218929704</v>
+      </c>
+      <c r="L49">
+        <v>-0.1045491354330149</v>
+      </c>
+      <c r="M49">
+        <v>-0.1322692840043484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05585420278117909</v>
+        <v>-0.04602379830720242</v>
       </c>
       <c r="C50">
-        <v>-0.02803913609615106</v>
+        <v>-0.0399628776972264</v>
       </c>
       <c r="D50">
-        <v>0.000837253239061432</v>
+        <v>0.00171409859224037</v>
       </c>
       <c r="E50">
-        <v>0.02444011539166267</v>
+        <v>0.01117240240639003</v>
       </c>
       <c r="F50">
-        <v>0.04487442689449528</v>
+        <v>-0.0517803395165631</v>
       </c>
       <c r="G50">
-        <v>-0.04409389163092603</v>
+        <v>0.03215076700108704</v>
       </c>
       <c r="H50">
-        <v>0.03927647554231958</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02723466634742271</v>
+      </c>
+      <c r="I50">
+        <v>-0.005397507884903149</v>
+      </c>
+      <c r="J50">
+        <v>-0.02871826386525114</v>
+      </c>
+      <c r="K50">
+        <v>0.05715194591568225</v>
+      </c>
+      <c r="L50">
+        <v>0.001780902850346781</v>
+      </c>
+      <c r="M50">
+        <v>0.02273679372340339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.03104916725933168</v>
+        <v>-0.02714238182208228</v>
       </c>
       <c r="C51">
-        <v>-0.01578742011831178</v>
+        <v>-0.006893041888653048</v>
       </c>
       <c r="D51">
-        <v>0.00306128562696555</v>
+        <v>-0.0007700697942681413</v>
       </c>
       <c r="E51">
-        <v>0.004393549721579563</v>
+        <v>-0.01745497318750639</v>
       </c>
       <c r="F51">
-        <v>0.006570698651314783</v>
+        <v>0.02144614203044561</v>
       </c>
       <c r="G51">
-        <v>0.009276858191715436</v>
+        <v>0.01053883240071601</v>
       </c>
       <c r="H51">
-        <v>-0.02325292013547475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01113832893135122</v>
+      </c>
+      <c r="I51">
+        <v>0.0002921801801843835</v>
+      </c>
+      <c r="J51">
+        <v>0.03495360470101869</v>
+      </c>
+      <c r="K51">
+        <v>-0.05627819544317395</v>
+      </c>
+      <c r="L51">
+        <v>-0.05932023175380367</v>
+      </c>
+      <c r="M51">
+        <v>-0.004182808121594767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.0330334901668462</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.007331608071984679</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0157624418251129</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.001313408717922113</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02710365047489536</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.04257765694195317</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.000571071823850144</v>
+      </c>
+      <c r="I52">
+        <v>0.01080297387900683</v>
+      </c>
+      <c r="J52">
+        <v>-0.002918953415727182</v>
+      </c>
+      <c r="K52">
+        <v>-0.003891387453766937</v>
+      </c>
+      <c r="L52">
+        <v>-0.01435421193441069</v>
+      </c>
+      <c r="M52">
+        <v>0.05425140019248559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1715648136313905</v>
+        <v>-0.158838667142412</v>
       </c>
       <c r="C53">
-        <v>-0.003212750791807308</v>
+        <v>-0.04529532543231767</v>
       </c>
       <c r="D53">
-        <v>-0.01615520317607182</v>
+        <v>-0.0152175073393935</v>
       </c>
       <c r="E53">
-        <v>-0.07990494129948848</v>
+        <v>0.00460438884463916</v>
       </c>
       <c r="F53">
-        <v>0.2433586521781345</v>
+        <v>0.03746226898702786</v>
       </c>
       <c r="G53">
-        <v>-0.03798413777869396</v>
+        <v>0.235598314434387</v>
       </c>
       <c r="H53">
-        <v>0.0781729992322415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1358386296955438</v>
+      </c>
+      <c r="I53">
+        <v>0.04618334017563908</v>
+      </c>
+      <c r="J53">
+        <v>-0.1129164528599904</v>
+      </c>
+      <c r="K53">
+        <v>-0.02795755920983269</v>
+      </c>
+      <c r="L53">
+        <v>0.0007550386394193019</v>
+      </c>
+      <c r="M53">
+        <v>0.09618509537465679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04792946134224535</v>
+        <v>-0.05372452666831751</v>
       </c>
       <c r="C54">
-        <v>-0.03622034126629382</v>
+        <v>-0.04108546871848648</v>
       </c>
       <c r="D54">
-        <v>-0.03426543980644264</v>
+        <v>0.01713959098990065</v>
       </c>
       <c r="E54">
-        <v>0.05311706359375918</v>
+        <v>-0.02875649478857675</v>
       </c>
       <c r="F54">
-        <v>0.01940564536503843</v>
+        <v>-0.1065710103929679</v>
       </c>
       <c r="G54">
-        <v>-0.004076130792408543</v>
+        <v>-0.04952677501839051</v>
       </c>
       <c r="H54">
-        <v>0.0005543094156870368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.04956968812837474</v>
+      </c>
+      <c r="I54">
+        <v>-0.01758446971129436</v>
+      </c>
+      <c r="J54">
+        <v>-0.0007500319561043504</v>
+      </c>
+      <c r="K54">
+        <v>0.13921515797058</v>
+      </c>
+      <c r="L54">
+        <v>0.05117449120799012</v>
+      </c>
+      <c r="M54">
+        <v>-0.04210917063236929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09204970845167554</v>
+        <v>-0.0854214294747799</v>
       </c>
       <c r="C55">
-        <v>-0.003723209280345489</v>
+        <v>-0.03816414698515033</v>
       </c>
       <c r="D55">
-        <v>-0.01836597004842913</v>
+        <v>-0.03154388464810011</v>
       </c>
       <c r="E55">
-        <v>-0.01796332466833082</v>
+        <v>-0.009430752379328104</v>
       </c>
       <c r="F55">
-        <v>0.2058561847380405</v>
+        <v>-0.02126685055117139</v>
       </c>
       <c r="G55">
-        <v>-0.04545726902462086</v>
+        <v>0.1392274005188111</v>
       </c>
       <c r="H55">
-        <v>0.08731714956538514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1116049650571704</v>
+      </c>
+      <c r="I55">
+        <v>0.02518672601846435</v>
+      </c>
+      <c r="J55">
+        <v>-0.06999116379569442</v>
+      </c>
+      <c r="K55">
+        <v>-0.007301583825004189</v>
+      </c>
+      <c r="L55">
+        <v>-0.0008452724750115296</v>
+      </c>
+      <c r="M55">
+        <v>-0.000576313742590445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1629871872924714</v>
+        <v>-0.1504735261121392</v>
       </c>
       <c r="C56">
-        <v>-0.007926362036356643</v>
+        <v>-0.06905529940768598</v>
       </c>
       <c r="D56">
-        <v>-0.02982359500420305</v>
+        <v>-0.03382338616385748</v>
       </c>
       <c r="E56">
-        <v>-0.08336927847753621</v>
+        <v>-0.01525273508495578</v>
       </c>
       <c r="F56">
-        <v>0.2186381392023546</v>
+        <v>0.01575091469573426</v>
       </c>
       <c r="G56">
-        <v>-0.08667444874661544</v>
+        <v>0.2177824874691643</v>
       </c>
       <c r="H56">
-        <v>0.07449160406740542</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1322352919383403</v>
+      </c>
+      <c r="I56">
+        <v>0.04076007105427858</v>
+      </c>
+      <c r="J56">
+        <v>-0.09214047649288404</v>
+      </c>
+      <c r="K56">
+        <v>-0.04252455208044312</v>
+      </c>
+      <c r="L56">
+        <v>0.04128449333523709</v>
+      </c>
+      <c r="M56">
+        <v>0.04972913475534742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02166247234938967</v>
+        <v>-0.037494430301729</v>
       </c>
       <c r="C58">
-        <v>-0.04547024272437405</v>
+        <v>-0.03346603843838247</v>
       </c>
       <c r="D58">
-        <v>0.03622616581781817</v>
+        <v>0.08042139214403647</v>
       </c>
       <c r="E58">
-        <v>0.3809674244878641</v>
+        <v>-0.002608716588898104</v>
       </c>
       <c r="F58">
-        <v>-0.307702716153252</v>
+        <v>-0.06632940098922013</v>
       </c>
       <c r="G58">
-        <v>-0.02988710897694323</v>
+        <v>-0.03888031900075524</v>
       </c>
       <c r="H58">
-        <v>0.3649856285327365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1390067786739931</v>
+      </c>
+      <c r="I58">
+        <v>-0.05920893186512756</v>
+      </c>
+      <c r="J58">
+        <v>0.1999111992587101</v>
+      </c>
+      <c r="K58">
+        <v>0.2020871005970738</v>
+      </c>
+      <c r="L58">
+        <v>-0.3938833432242064</v>
+      </c>
+      <c r="M58">
+        <v>-0.003470846922130812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2240472633058163</v>
+        <v>-0.227225054245138</v>
       </c>
       <c r="C59">
-        <v>0.4006516149754661</v>
+        <v>0.2970878245827429</v>
       </c>
       <c r="D59">
-        <v>-0.0498313502247827</v>
+        <v>-0.04608721249800227</v>
       </c>
       <c r="E59">
-        <v>-0.00388553422600096</v>
+        <v>-0.01323792085470443</v>
       </c>
       <c r="F59">
-        <v>0.05261562453497153</v>
+        <v>-0.02270471371035353</v>
       </c>
       <c r="G59">
-        <v>0.03656442681215571</v>
+        <v>0.04795272260504897</v>
       </c>
       <c r="H59">
-        <v>-0.06563145181382762</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.09028931657803113</v>
+      </c>
+      <c r="I59">
+        <v>0.0161282566899581</v>
+      </c>
+      <c r="J59">
+        <v>0.07193160179331794</v>
+      </c>
+      <c r="K59">
+        <v>-0.1150756173421203</v>
+      </c>
+      <c r="L59">
+        <v>0.03740079816472762</v>
+      </c>
+      <c r="M59">
+        <v>0.0456898396386678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2541119090891769</v>
+        <v>-0.2382245184575355</v>
       </c>
       <c r="C60">
-        <v>-0.07499355723924882</v>
+        <v>-0.1237423141610821</v>
       </c>
       <c r="D60">
-        <v>-0.07503815064448034</v>
+        <v>-0.06404676555901137</v>
       </c>
       <c r="E60">
-        <v>-0.0004973392767219415</v>
+        <v>-0.04603518253953108</v>
       </c>
       <c r="F60">
-        <v>-0.05338526323701497</v>
+        <v>0.1119107335516671</v>
       </c>
       <c r="G60">
-        <v>-0.02135348970202037</v>
+        <v>-0.02113893997401931</v>
       </c>
       <c r="H60">
-        <v>0.05784337333315594</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.09995594261692373</v>
+      </c>
+      <c r="I60">
+        <v>-0.1055948823094621</v>
+      </c>
+      <c r="J60">
+        <v>-0.1671050016206405</v>
+      </c>
+      <c r="K60">
+        <v>-0.1888633967390545</v>
+      </c>
+      <c r="L60">
+        <v>-0.09918763938736423</v>
+      </c>
+      <c r="M60">
+        <v>0.03712292647555557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08599677486167093</v>
+        <v>-0.1014529758340356</v>
       </c>
       <c r="C61">
-        <v>-0.05070203221100911</v>
+        <v>-0.06840095420338013</v>
       </c>
       <c r="D61">
-        <v>-0.01148197995420393</v>
+        <v>-0.04356133698581773</v>
       </c>
       <c r="E61">
-        <v>0.005047142683419176</v>
+        <v>-0.004393550174024453</v>
       </c>
       <c r="F61">
-        <v>0.02555067151598378</v>
+        <v>-0.1463563938313642</v>
       </c>
       <c r="G61">
-        <v>0.01655150366275003</v>
+        <v>0.06683917370664461</v>
       </c>
       <c r="H61">
-        <v>-0.05740368382841292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.04639606528900349</v>
+      </c>
+      <c r="I61">
+        <v>0.04192244379795713</v>
+      </c>
+      <c r="J61">
+        <v>0.1029047813033644</v>
+      </c>
+      <c r="K61">
+        <v>0.03725326381972893</v>
+      </c>
+      <c r="L61">
+        <v>-0.03085246250233328</v>
+      </c>
+      <c r="M61">
+        <v>0.0007989393373705691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1580628075931425</v>
+        <v>-0.1405224356428111</v>
       </c>
       <c r="C62">
-        <v>-0.04272813248042926</v>
+        <v>-0.06931697086381677</v>
       </c>
       <c r="D62">
-        <v>0.01014972804399172</v>
+        <v>-0.03228380209185962</v>
       </c>
       <c r="E62">
-        <v>-0.1421752027836576</v>
+        <v>0.02971273988581051</v>
       </c>
       <c r="F62">
-        <v>0.2149821615474131</v>
+        <v>0.03185706509222408</v>
       </c>
       <c r="G62">
-        <v>-0.02057726678488867</v>
+        <v>0.1610397144762254</v>
       </c>
       <c r="H62">
-        <v>0.02724938231647289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1358409563370264</v>
+      </c>
+      <c r="I62">
+        <v>0.06607486134897528</v>
+      </c>
+      <c r="J62">
+        <v>-0.131237747686693</v>
+      </c>
+      <c r="K62">
+        <v>-0.0001773514460415416</v>
+      </c>
+      <c r="L62">
+        <v>0.07567074835063417</v>
+      </c>
+      <c r="M62">
+        <v>-0.01008164366733521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03977575977613086</v>
+        <v>-0.0473711159806381</v>
       </c>
       <c r="C63">
-        <v>-0.04083818786984971</v>
+        <v>-0.03200679344087533</v>
       </c>
       <c r="D63">
-        <v>-0.004967922623090925</v>
+        <v>-0.005298668432560265</v>
       </c>
       <c r="E63">
-        <v>0.001322742109213036</v>
+        <v>0.01350480462433855</v>
       </c>
       <c r="F63">
-        <v>0.02087525121408113</v>
+        <v>-0.07290689261455666</v>
       </c>
       <c r="G63">
-        <v>0.01325881262558578</v>
+        <v>-0.006160290162008884</v>
       </c>
       <c r="H63">
-        <v>0.04798395597193716</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.009241387838394533</v>
+      </c>
+      <c r="I63">
+        <v>0.001427153011245126</v>
+      </c>
+      <c r="J63">
+        <v>0.003187784732679722</v>
+      </c>
+      <c r="K63">
+        <v>0.06445432115664908</v>
+      </c>
+      <c r="L63">
+        <v>-0.0170292914368365</v>
+      </c>
+      <c r="M63">
+        <v>-0.02875936463941362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1053379592407825</v>
+        <v>-0.09872646053314948</v>
       </c>
       <c r="C64">
-        <v>-0.02876880312006684</v>
+        <v>-0.04894070931602805</v>
       </c>
       <c r="D64">
-        <v>-0.03627014665589631</v>
+        <v>0.00797134247783359</v>
       </c>
       <c r="E64">
-        <v>0.04455829714990533</v>
+        <v>-0.03664563534411008</v>
       </c>
       <c r="F64">
-        <v>-0.005907509479859371</v>
+        <v>-0.07108895022694503</v>
       </c>
       <c r="G64">
-        <v>0.0476911639296184</v>
+        <v>-0.00351634598673203</v>
       </c>
       <c r="H64">
-        <v>-0.0523385141362385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.08790613878624397</v>
+      </c>
+      <c r="I64">
+        <v>-0.02980569149019073</v>
+      </c>
+      <c r="J64">
+        <v>0.01492022537865867</v>
+      </c>
+      <c r="K64">
+        <v>0.01439730753483439</v>
+      </c>
+      <c r="L64">
+        <v>0.007979009301635306</v>
+      </c>
+      <c r="M64">
+        <v>0.01891889528891728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1257806954453516</v>
+        <v>-0.1201214100422952</v>
       </c>
       <c r="C65">
-        <v>-0.04919416483612624</v>
+        <v>-0.04323512622406584</v>
       </c>
       <c r="D65">
-        <v>-0.02194564504081867</v>
+        <v>-0.01229833419009751</v>
       </c>
       <c r="E65">
-        <v>0.0873566953867561</v>
+        <v>0.02244010085230169</v>
       </c>
       <c r="F65">
-        <v>-0.1579445703000522</v>
+        <v>0.01465105304351008</v>
       </c>
       <c r="G65">
-        <v>-0.007034810539373373</v>
+        <v>-0.1656802367393723</v>
       </c>
       <c r="H65">
-        <v>0.6010946391560018</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.01467293547064493</v>
+      </c>
+      <c r="I65">
+        <v>-0.4622218881365061</v>
+      </c>
+      <c r="J65">
+        <v>-0.4624623122698197</v>
+      </c>
+      <c r="K65">
+        <v>0.1562498593493087</v>
+      </c>
+      <c r="L65">
+        <v>-0.1682267340471116</v>
+      </c>
+      <c r="M65">
+        <v>0.08720082320545704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1607052954818401</v>
+        <v>-0.1336267074208563</v>
       </c>
       <c r="C66">
-        <v>-0.1223274880156541</v>
+        <v>-0.1338160202011493</v>
       </c>
       <c r="D66">
-        <v>-0.01011972646246695</v>
+        <v>-0.09660624281319954</v>
       </c>
       <c r="E66">
-        <v>-0.001738837787955498</v>
+        <v>0.04929088357240836</v>
       </c>
       <c r="F66">
-        <v>0.05885064381885258</v>
+        <v>-0.1870418338036307</v>
       </c>
       <c r="G66">
-        <v>0.1671748121089212</v>
+        <v>0.0804055838766784</v>
       </c>
       <c r="H66">
-        <v>-0.2049150450232126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1457381667965371</v>
+      </c>
+      <c r="I66">
+        <v>0.06896282445989046</v>
+      </c>
+      <c r="J66">
+        <v>0.1606765260716448</v>
+      </c>
+      <c r="K66">
+        <v>-0.08845955502703093</v>
+      </c>
+      <c r="L66">
+        <v>-0.05860003837805235</v>
+      </c>
+      <c r="M66">
+        <v>0.09988087313531518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.0838246666305917</v>
+        <v>-0.07553080825926838</v>
       </c>
       <c r="C67">
-        <v>-0.05008523115305545</v>
+        <v>-0.05773369716442008</v>
       </c>
       <c r="D67">
-        <v>-0.007321558123997852</v>
+        <v>0.0226199187013536</v>
       </c>
       <c r="E67">
-        <v>0.009245808286875226</v>
+        <v>-0.0233706624274092</v>
       </c>
       <c r="F67">
-        <v>0.02853672863079028</v>
+        <v>0.05823352519493867</v>
       </c>
       <c r="G67">
-        <v>0.001413131656044715</v>
+        <v>0.08179133621224093</v>
       </c>
       <c r="H67">
-        <v>-0.07112165822058372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.01758007944081729</v>
+      </c>
+      <c r="I67">
+        <v>-0.002738629571540342</v>
+      </c>
+      <c r="J67">
+        <v>-0.004800079700561852</v>
+      </c>
+      <c r="K67">
+        <v>-0.07171235210688628</v>
+      </c>
+      <c r="L67">
+        <v>0.1425368391718536</v>
+      </c>
+      <c r="M67">
+        <v>0.05313448837628049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09376775154141247</v>
+        <v>-0.1260246320207846</v>
       </c>
       <c r="C68">
-        <v>0.2842957303247503</v>
+        <v>0.2701395016828667</v>
       </c>
       <c r="D68">
-        <v>-0.006785277356333318</v>
+        <v>-0.00914687762969402</v>
       </c>
       <c r="E68">
-        <v>0.02246425276157345</v>
+        <v>-0.000519812788009779</v>
       </c>
       <c r="F68">
-        <v>0.02510074441844576</v>
+        <v>-0.03943412146233612</v>
       </c>
       <c r="G68">
-        <v>-0.03745515555687386</v>
+        <v>0.02589726123441147</v>
       </c>
       <c r="H68">
-        <v>0.02435066838367007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.008548292592987679</v>
+      </c>
+      <c r="I68">
+        <v>-0.02773113326618455</v>
+      </c>
+      <c r="J68">
+        <v>-0.04008689235350565</v>
+      </c>
+      <c r="K68">
+        <v>0.04477810911385011</v>
+      </c>
+      <c r="L68">
+        <v>-0.02690732711824106</v>
+      </c>
+      <c r="M68">
+        <v>0.01389167349923737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03264985551306899</v>
+        <v>-0.0434572190586175</v>
       </c>
       <c r="C69">
-        <v>-0.02765811639333804</v>
+        <v>-0.02024192002080874</v>
       </c>
       <c r="D69">
-        <v>-0.009088247090152119</v>
+        <v>0.00680499238320049</v>
       </c>
       <c r="E69">
-        <v>0.007177122831101784</v>
+        <v>-0.00162470623769861</v>
       </c>
       <c r="F69">
-        <v>0.0280622755184498</v>
+        <v>-0.01885616603719627</v>
       </c>
       <c r="G69">
-        <v>0.03052301671336863</v>
+        <v>0.02180233637718649</v>
       </c>
       <c r="H69">
-        <v>0.002601169381455136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.001542084593544495</v>
+      </c>
+      <c r="I69">
+        <v>-0.000402540949158294</v>
+      </c>
+      <c r="J69">
+        <v>0.002708094280771665</v>
+      </c>
+      <c r="K69">
+        <v>0.01122238527392125</v>
+      </c>
+      <c r="L69">
+        <v>0.01903705636849714</v>
+      </c>
+      <c r="M69">
+        <v>-0.07169685679925406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05130176110348542</v>
+        <v>-0.05509975890205918</v>
       </c>
       <c r="C70">
-        <v>-0.0008925262686901601</v>
+        <v>-0.03505823454576956</v>
       </c>
       <c r="D70">
-        <v>-0.04166414891419134</v>
+        <v>-0.01903882704165848</v>
       </c>
       <c r="E70">
-        <v>-0.007962847191107238</v>
+        <v>-0.02605642305397712</v>
       </c>
       <c r="F70">
-        <v>-0.09403770773079835</v>
+        <v>0.01209257758443748</v>
       </c>
       <c r="G70">
-        <v>-0.0411083171969641</v>
+        <v>-0.07450575716473776</v>
       </c>
       <c r="H70">
-        <v>-0.0583949633490791</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.04040001200645905</v>
+      </c>
+      <c r="I70">
+        <v>-0.02102095528314134</v>
+      </c>
+      <c r="J70">
+        <v>-0.02880489132020574</v>
+      </c>
+      <c r="K70">
+        <v>0.1681990261281888</v>
+      </c>
+      <c r="L70">
+        <v>0.2415673938569466</v>
+      </c>
+      <c r="M70">
+        <v>-0.008172494490497896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.09965304560558984</v>
+        <v>-0.1404211055373537</v>
       </c>
       <c r="C71">
-        <v>0.2801703303341403</v>
+        <v>0.2788862751612255</v>
       </c>
       <c r="D71">
-        <v>-0.04046125487877284</v>
+        <v>-0.01330141713184496</v>
       </c>
       <c r="E71">
-        <v>0.01147128784501858</v>
+        <v>-0.01737455790574776</v>
       </c>
       <c r="F71">
-        <v>-0.00335813347000062</v>
+        <v>-0.03918717211249795</v>
       </c>
       <c r="G71">
-        <v>-0.0129896810171026</v>
+        <v>0.0276941150699988</v>
       </c>
       <c r="H71">
-        <v>-0.001587742915746895</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.0322768671407006</v>
+      </c>
+      <c r="I71">
+        <v>-0.01115312418844749</v>
+      </c>
+      <c r="J71">
+        <v>-0.01378731282468557</v>
+      </c>
+      <c r="K71">
+        <v>0.02069171168399282</v>
+      </c>
+      <c r="L71">
+        <v>-0.01662478111349679</v>
+      </c>
+      <c r="M71">
+        <v>0.00011079786171659</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1777147027300722</v>
+        <v>-0.1465093401568411</v>
       </c>
       <c r="C72">
-        <v>-0.02277434147212505</v>
+        <v>-0.02749900332657566</v>
       </c>
       <c r="D72">
-        <v>0.2519829476966066</v>
+        <v>0.002023977541338701</v>
       </c>
       <c r="E72">
-        <v>-0.04948142053236611</v>
+        <v>0.1855775289940827</v>
       </c>
       <c r="F72">
-        <v>0.05550963150597964</v>
+        <v>-0.03408849865631329</v>
       </c>
       <c r="G72">
-        <v>0.07125309218551054</v>
+        <v>0.02750212050984616</v>
       </c>
       <c r="H72">
-        <v>0.07798737057671142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02887451461010214</v>
+      </c>
+      <c r="I72">
+        <v>-0.07056124099675987</v>
+      </c>
+      <c r="J72">
+        <v>-0.1399246398974995</v>
+      </c>
+      <c r="K72">
+        <v>-0.08095332822415069</v>
+      </c>
+      <c r="L72">
+        <v>-0.01060996941238728</v>
+      </c>
+      <c r="M72">
+        <v>0.03384557197569517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2910021664165523</v>
+        <v>-0.2411468002628916</v>
       </c>
       <c r="C73">
-        <v>-0.1797549977568181</v>
+        <v>-0.1544902704181539</v>
       </c>
       <c r="D73">
-        <v>-0.09992838846031543</v>
+        <v>-0.1377399276889137</v>
       </c>
       <c r="E73">
-        <v>-0.02409596899951827</v>
+        <v>-0.09323836681867272</v>
       </c>
       <c r="F73">
-        <v>-0.1971957705010527</v>
+        <v>0.4346566458174327</v>
       </c>
       <c r="G73">
-        <v>0.01092829835803965</v>
+        <v>-0.02959702850958366</v>
       </c>
       <c r="H73">
-        <v>0.1402868433577909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.3523904986992114</v>
+      </c>
+      <c r="I73">
+        <v>0.02344459824791825</v>
+      </c>
+      <c r="J73">
+        <v>0.09790902047512223</v>
+      </c>
+      <c r="K73">
+        <v>-0.2500094739452267</v>
+      </c>
+      <c r="L73">
+        <v>-0.2359623421431137</v>
+      </c>
+      <c r="M73">
+        <v>0.1102934331793548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09372963133623696</v>
+        <v>-0.09669228986061594</v>
       </c>
       <c r="C74">
-        <v>-0.03485438386955543</v>
+        <v>-0.06992277693917834</v>
       </c>
       <c r="D74">
-        <v>-0.004581587064172539</v>
+        <v>-0.01041787640896066</v>
       </c>
       <c r="E74">
-        <v>-0.01927093373628007</v>
+        <v>0.01205541738897711</v>
       </c>
       <c r="F74">
-        <v>0.1223868027633704</v>
+        <v>0.01573229867830797</v>
       </c>
       <c r="G74">
-        <v>-0.05095095029073717</v>
+        <v>0.1545563983029179</v>
       </c>
       <c r="H74">
-        <v>0.07990288138197622</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.02077206826464796</v>
+      </c>
+      <c r="I74">
+        <v>0.03262844910423986</v>
+      </c>
+      <c r="J74">
+        <v>-0.04394125958169724</v>
+      </c>
+      <c r="K74">
+        <v>-0.0002479579397414633</v>
+      </c>
+      <c r="L74">
+        <v>-0.007103262903685228</v>
+      </c>
+      <c r="M74">
+        <v>0.01296796804327647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.089505309611183</v>
+        <v>-0.09355855575172374</v>
       </c>
       <c r="C75">
-        <v>-0.01893346084514041</v>
+        <v>-0.04962336762572865</v>
       </c>
       <c r="D75">
-        <v>-0.008892050590407291</v>
+        <v>-0.008080092866145886</v>
       </c>
       <c r="E75">
-        <v>-0.04629149149801844</v>
+        <v>0.008758243288426611</v>
       </c>
       <c r="F75">
-        <v>0.1042225055190101</v>
+        <v>0.01607069029523129</v>
       </c>
       <c r="G75">
-        <v>-0.05920083558856178</v>
+        <v>0.09474118470326115</v>
       </c>
       <c r="H75">
-        <v>0.02524352974563002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1016376578898986</v>
+      </c>
+      <c r="I75">
+        <v>0.01271598486719272</v>
+      </c>
+      <c r="J75">
+        <v>-0.03087156742528261</v>
+      </c>
+      <c r="K75">
+        <v>-0.01581768198137231</v>
+      </c>
+      <c r="L75">
+        <v>0.01491476234195436</v>
+      </c>
+      <c r="M75">
+        <v>-0.06426704287405625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1321346962911279</v>
+        <v>-0.08112620633224914</v>
       </c>
       <c r="C76">
-        <v>-0.02212233448701999</v>
+        <v>-0.06153891645933197</v>
       </c>
       <c r="D76">
-        <v>-0.01000297553566152</v>
+        <v>-0.005552860056232078</v>
       </c>
       <c r="E76">
-        <v>-0.02687075086769878</v>
+        <v>-0.01184264619623017</v>
       </c>
       <c r="F76">
-        <v>0.2246188791506804</v>
+        <v>0.04567391719023936</v>
       </c>
       <c r="G76">
-        <v>-0.08282832844841018</v>
+        <v>0.1748601799429102</v>
       </c>
       <c r="H76">
-        <v>0.09388375070126553</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1329797681167308</v>
+      </c>
+      <c r="I76">
+        <v>0.03481270437862068</v>
+      </c>
+      <c r="J76">
+        <v>-0.04847213572090573</v>
+      </c>
+      <c r="K76">
+        <v>-0.00158096460555023</v>
+      </c>
+      <c r="L76">
+        <v>0.00144809496333122</v>
+      </c>
+      <c r="M76">
+        <v>0.05137478735794954</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07570844812672593</v>
+        <v>-0.06914663485357442</v>
       </c>
       <c r="C77">
-        <v>-0.02715295415899961</v>
+        <v>-0.0264878098262975</v>
       </c>
       <c r="D77">
-        <v>-0.02502663388032424</v>
+        <v>-0.01825083013558046</v>
       </c>
       <c r="E77">
-        <v>0.1678081808673877</v>
+        <v>-0.05028562636798193</v>
       </c>
       <c r="F77">
-        <v>-0.04466803776185763</v>
+        <v>-0.257117170000196</v>
       </c>
       <c r="G77">
-        <v>0.684801374575251</v>
+        <v>-0.1497577864400357</v>
       </c>
       <c r="H77">
-        <v>-0.1469358173495807</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1656741038222617</v>
+      </c>
+      <c r="I77">
+        <v>-0.2835400914602643</v>
+      </c>
+      <c r="J77">
+        <v>0.0756667215612693</v>
+      </c>
+      <c r="K77">
+        <v>-0.4874107147437603</v>
+      </c>
+      <c r="L77">
+        <v>0.4973055124962532</v>
+      </c>
+      <c r="M77">
+        <v>0.06915998245808914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1522586087869444</v>
+        <v>-0.158346899233153</v>
       </c>
       <c r="C78">
-        <v>-0.08789258961356695</v>
+        <v>-0.1140236411286582</v>
       </c>
       <c r="D78">
-        <v>-0.02724980759940719</v>
+        <v>0.1844873066859007</v>
       </c>
       <c r="E78">
-        <v>0.2027294699784589</v>
+        <v>-0.1282417461354915</v>
       </c>
       <c r="F78">
-        <v>-0.003827381210596492</v>
+        <v>-0.09497810977677355</v>
       </c>
       <c r="G78">
-        <v>0.02165616483124815</v>
+        <v>-0.3651887368554035</v>
       </c>
       <c r="H78">
-        <v>-0.0800735748025852</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.641961122061907</v>
+      </c>
+      <c r="I78">
+        <v>-0.0914776894902511</v>
+      </c>
+      <c r="J78">
+        <v>0.2449624791831022</v>
+      </c>
+      <c r="K78">
+        <v>-0.3054941501632845</v>
+      </c>
+      <c r="L78">
+        <v>-0.2700079991028035</v>
+      </c>
+      <c r="M78">
+        <v>0.1252467745558207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1415030205013334</v>
+        <v>-0.1346661728728371</v>
       </c>
       <c r="C79">
-        <v>-0.04783180274592733</v>
+        <v>-0.07678462030045122</v>
       </c>
       <c r="D79">
-        <v>-0.01604585479783081</v>
+        <v>-0.004550187294688931</v>
       </c>
       <c r="E79">
-        <v>-0.05684122568803147</v>
+        <v>-0.002407861921449146</v>
       </c>
       <c r="F79">
-        <v>0.1546267756384815</v>
+        <v>-0.01520820646906849</v>
       </c>
       <c r="G79">
-        <v>-0.04703784051081319</v>
+        <v>0.1577029837619684</v>
       </c>
       <c r="H79">
-        <v>0.02582275468885065</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.08072737336604394</v>
+      </c>
+      <c r="I79">
+        <v>0.04020607846494912</v>
+      </c>
+      <c r="J79">
+        <v>-0.09209921114379283</v>
+      </c>
+      <c r="K79">
+        <v>-0.01057840848969167</v>
+      </c>
+      <c r="L79">
+        <v>0.03772577063233098</v>
+      </c>
+      <c r="M79">
+        <v>-0.01639167867498836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02559210406572913</v>
+        <v>-0.05550867002280351</v>
       </c>
       <c r="C80">
-        <v>-0.0001775323015660718</v>
+        <v>-0.02409765724278638</v>
       </c>
       <c r="D80">
-        <v>-0.003968090436170349</v>
+        <v>-0.06842921950855094</v>
       </c>
       <c r="E80">
-        <v>-0.04260451986448423</v>
+        <v>-0.01377936991818686</v>
       </c>
       <c r="F80">
-        <v>0.003988051114638231</v>
+        <v>-0.02576571963330186</v>
       </c>
       <c r="G80">
-        <v>0.01923024481276892</v>
+        <v>-0.03142716340891313</v>
       </c>
       <c r="H80">
-        <v>0.05075581809013512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.01975185753926122</v>
+      </c>
+      <c r="I80">
+        <v>-0.01595392881977298</v>
+      </c>
+      <c r="J80">
+        <v>-0.009539801850556896</v>
+      </c>
+      <c r="K80">
+        <v>0.1526584388750242</v>
+      </c>
+      <c r="L80">
+        <v>-0.08729327363632754</v>
+      </c>
+      <c r="M80">
+        <v>-0.02698028372994161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1099169603839022</v>
+        <v>-0.1190659085408818</v>
       </c>
       <c r="C81">
-        <v>-0.04302040616237763</v>
+        <v>-0.06452085808741259</v>
       </c>
       <c r="D81">
-        <v>-0.02636212671656417</v>
+        <v>-0.003138646683033347</v>
       </c>
       <c r="E81">
-        <v>-0.06655239652109581</v>
+        <v>-0.005613627491034458</v>
       </c>
       <c r="F81">
-        <v>0.1185967979325104</v>
+        <v>-0.02661574293894942</v>
       </c>
       <c r="G81">
-        <v>-0.03556221873278965</v>
+        <v>0.1188092294052727</v>
       </c>
       <c r="H81">
-        <v>0.007679175780068145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07343877562798913</v>
+      </c>
+      <c r="I81">
+        <v>0.06072036487856457</v>
+      </c>
+      <c r="J81">
+        <v>-0.03753611747201481</v>
+      </c>
+      <c r="K81">
+        <v>0.001159453375005168</v>
+      </c>
+      <c r="L81">
+        <v>0.03348559489622696</v>
+      </c>
+      <c r="M81">
+        <v>-0.1229077281565463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1138794684547555</v>
+        <v>-0.1232981618736812</v>
       </c>
       <c r="C82">
-        <v>-0.02550749622383887</v>
+        <v>-0.05285175865932397</v>
       </c>
       <c r="D82">
-        <v>-0.06211351919134157</v>
+        <v>-0.02776650468063833</v>
       </c>
       <c r="E82">
-        <v>-0.08234283870073092</v>
+        <v>7.871627721140778e-05</v>
       </c>
       <c r="F82">
-        <v>0.2344904455245707</v>
+        <v>-0.0005756511352880301</v>
       </c>
       <c r="G82">
-        <v>-0.06222916307251377</v>
+        <v>0.2273750890826914</v>
       </c>
       <c r="H82">
-        <v>0.02263805614682177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1031961676307363</v>
+      </c>
+      <c r="I82">
+        <v>0.1150302180590232</v>
+      </c>
+      <c r="J82">
+        <v>-0.02611976905319355</v>
+      </c>
+      <c r="K82">
+        <v>0.03872965393365574</v>
+      </c>
+      <c r="L82">
+        <v>0.06984019763907415</v>
+      </c>
+      <c r="M82">
+        <v>-0.03741543152187141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06335069907013591</v>
+        <v>-0.07263341939726894</v>
       </c>
       <c r="C83">
-        <v>-0.0456108396101963</v>
+        <v>-0.07398311706404453</v>
       </c>
       <c r="D83">
-        <v>-0.02630774035676066</v>
+        <v>-0.02147432823077917</v>
       </c>
       <c r="E83">
-        <v>0.001790056439677306</v>
+        <v>-0.003690255293085378</v>
       </c>
       <c r="F83">
-        <v>-0.05174892272294077</v>
+        <v>-0.01696128752564117</v>
       </c>
       <c r="G83">
-        <v>0.02000440578398072</v>
+        <v>0.04390069995796339</v>
       </c>
       <c r="H83">
-        <v>-0.1007633430565102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.05573121060204726</v>
+      </c>
+      <c r="I83">
+        <v>-0.0412872248427085</v>
+      </c>
+      <c r="J83">
+        <v>0.03913479731964477</v>
+      </c>
+      <c r="K83">
+        <v>0.06630944355139758</v>
+      </c>
+      <c r="L83">
+        <v>0.05551200500905148</v>
+      </c>
+      <c r="M83">
+        <v>0.03910908372208949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05210339832321527</v>
+        <v>-0.05609623100809871</v>
       </c>
       <c r="C84">
-        <v>-0.04571110234032064</v>
+        <v>0.01736545845488039</v>
       </c>
       <c r="D84">
-        <v>0.06039905382914845</v>
+        <v>-0.00257265979328445</v>
       </c>
       <c r="E84">
-        <v>0.007125727545975577</v>
+        <v>0.02024322162298036</v>
       </c>
       <c r="F84">
-        <v>0.02706825114231318</v>
+        <v>-0.02190449677159867</v>
       </c>
       <c r="G84">
-        <v>-0.1507149002430674</v>
+        <v>-0.1797019908122011</v>
       </c>
       <c r="H84">
-        <v>-0.01314544575090247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.04573816564275422</v>
+      </c>
+      <c r="I84">
+        <v>0.2635671691840067</v>
+      </c>
+      <c r="J84">
+        <v>0.07304473061252716</v>
+      </c>
+      <c r="K84">
+        <v>0.1825652376695642</v>
+      </c>
+      <c r="L84">
+        <v>-0.05979129807280881</v>
+      </c>
+      <c r="M84">
+        <v>0.4974567831106845</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09027194755010295</v>
+        <v>-0.1098601478863322</v>
       </c>
       <c r="C85">
-        <v>-0.03981587774527924</v>
+        <v>-0.05205269295188556</v>
       </c>
       <c r="D85">
-        <v>-0.05558960065329125</v>
+        <v>-0.01310316794882881</v>
       </c>
       <c r="E85">
-        <v>-0.03498716699018524</v>
+        <v>-0.03273027294326199</v>
       </c>
       <c r="F85">
-        <v>0.1864748894088719</v>
+        <v>-0.01680362591273701</v>
       </c>
       <c r="G85">
-        <v>-0.01607653160036512</v>
+        <v>0.1636782337598075</v>
       </c>
       <c r="H85">
-        <v>0.06572736744572548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.08138686841563475</v>
+      </c>
+      <c r="I85">
+        <v>0.04106049712200807</v>
+      </c>
+      <c r="J85">
+        <v>-0.1007983864832785</v>
+      </c>
+      <c r="K85">
+        <v>-0.03048643228380445</v>
+      </c>
+      <c r="L85">
+        <v>0.03295788149266222</v>
+      </c>
+      <c r="M85">
+        <v>-0.04442219438197311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04443780966769718</v>
+        <v>-0.07335410608350591</v>
       </c>
       <c r="C86">
-        <v>-0.04552556756622393</v>
+        <v>-0.03240100398340757</v>
       </c>
       <c r="D86">
-        <v>-0.03431539564556831</v>
+        <v>0.01920134430253313</v>
       </c>
       <c r="E86">
-        <v>0.03702909239583597</v>
+        <v>-0.1231402764761163</v>
       </c>
       <c r="F86">
-        <v>-0.006796179763892387</v>
+        <v>-0.04070985886992579</v>
       </c>
       <c r="G86">
-        <v>0.07002362762775352</v>
+        <v>-0.415240724545799</v>
       </c>
       <c r="H86">
-        <v>0.08372296207261312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.02999166983059887</v>
+      </c>
+      <c r="I86">
+        <v>0.6161352332255784</v>
+      </c>
+      <c r="J86">
+        <v>-0.4528345307214148</v>
+      </c>
+      <c r="K86">
+        <v>-0.07363774094461303</v>
+      </c>
+      <c r="L86">
+        <v>0.0656258550239459</v>
+      </c>
+      <c r="M86">
+        <v>0.03488853752427096</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.08975332396170946</v>
+        <v>-0.1079778510049558</v>
       </c>
       <c r="C87">
-        <v>-0.0580200588724725</v>
+        <v>-0.07421981214985243</v>
       </c>
       <c r="D87">
-        <v>0.001562229654482626</v>
+        <v>0.02913255548959887</v>
       </c>
       <c r="E87">
-        <v>0.06211698234662547</v>
+        <v>-0.03321877495613071</v>
       </c>
       <c r="F87">
-        <v>0.003177856123212159</v>
+        <v>-0.09826223521852458</v>
       </c>
       <c r="G87">
-        <v>0.1214612974115761</v>
+        <v>-0.08388129285433987</v>
       </c>
       <c r="H87">
-        <v>-0.07413404793116075</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09156087317409231</v>
+      </c>
+      <c r="I87">
+        <v>-0.05736114133411472</v>
+      </c>
+      <c r="J87">
+        <v>0.03685236011714965</v>
+      </c>
+      <c r="K87">
+        <v>-0.01002661433494749</v>
+      </c>
+      <c r="L87">
+        <v>0.2101467306355521</v>
+      </c>
+      <c r="M87">
+        <v>-0.06155854775519006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.0564621732622637</v>
+        <v>-0.0579348756385645</v>
       </c>
       <c r="C88">
-        <v>-0.04533056492725655</v>
+        <v>-0.05490639345433908</v>
       </c>
       <c r="D88">
-        <v>-0.02521246933101411</v>
+        <v>-0.02941576616129868</v>
       </c>
       <c r="E88">
-        <v>0.008270567268343748</v>
+        <v>-0.001906353041846769</v>
       </c>
       <c r="F88">
-        <v>-0.007603270129190953</v>
+        <v>-0.03898958833155564</v>
       </c>
       <c r="G88">
-        <v>0.0303704465640004</v>
+        <v>0.03044345539780226</v>
       </c>
       <c r="H88">
-        <v>-0.02833111532530485</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.03642221317863724</v>
+      </c>
+      <c r="I88">
+        <v>0.009665520199797757</v>
+      </c>
+      <c r="J88">
+        <v>0.02251189012356323</v>
+      </c>
+      <c r="K88">
+        <v>0.05082635571754918</v>
+      </c>
+      <c r="L88">
+        <v>-0.03716286233539051</v>
+      </c>
+      <c r="M88">
+        <v>-0.06486148460065562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1593109977373811</v>
+        <v>-0.2113257122125163</v>
       </c>
       <c r="C89">
-        <v>0.3333991444810587</v>
+        <v>0.357576725574042</v>
       </c>
       <c r="D89">
-        <v>-0.07180341670236694</v>
+        <v>0.04507693953301437</v>
       </c>
       <c r="E89">
-        <v>0.09650241900280326</v>
+        <v>-0.08062877450753629</v>
       </c>
       <c r="F89">
-        <v>-0.04755260222397551</v>
+        <v>-0.009078235419098588</v>
       </c>
       <c r="G89">
-        <v>0.03353507095106382</v>
+        <v>-0.02666922146954106</v>
       </c>
       <c r="H89">
-        <v>0.006306150429970868</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01553102837502815</v>
+      </c>
+      <c r="I89">
+        <v>0.01882426260048023</v>
+      </c>
+      <c r="J89">
+        <v>0.07490490700504691</v>
+      </c>
+      <c r="K89">
+        <v>0.01707356256722243</v>
+      </c>
+      <c r="L89">
+        <v>-0.02292811778657056</v>
+      </c>
+      <c r="M89">
+        <v>-0.1011764837249871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1216412141009073</v>
+        <v>-0.1546491155603363</v>
       </c>
       <c r="C90">
-        <v>0.2801740213000128</v>
+        <v>0.2671503788747897</v>
       </c>
       <c r="D90">
-        <v>-0.009953280734013222</v>
+        <v>-0.009016214098191861</v>
       </c>
       <c r="E90">
-        <v>0.06415435846309185</v>
+        <v>-0.01017656918758795</v>
       </c>
       <c r="F90">
-        <v>-0.02865890766540997</v>
+        <v>-0.04074763576947023</v>
       </c>
       <c r="G90">
-        <v>0.1026319551384498</v>
+        <v>-0.004495976937983971</v>
       </c>
       <c r="H90">
-        <v>-0.03499528878423956</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.08064178621582899</v>
+      </c>
+      <c r="I90">
+        <v>-0.0046891804555748</v>
+      </c>
+      <c r="J90">
+        <v>0.008832750783778881</v>
+      </c>
+      <c r="K90">
+        <v>-0.01343949833426407</v>
+      </c>
+      <c r="L90">
+        <v>-0.02965138351803381</v>
+      </c>
+      <c r="M90">
+        <v>0.0579229682919716</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08028492219825663</v>
+        <v>-0.0785932165426407</v>
       </c>
       <c r="C91">
-        <v>-0.02183718542132836</v>
+        <v>-0.05413300400685362</v>
       </c>
       <c r="D91">
-        <v>-0.01499900810126759</v>
+        <v>0.003665357911647973</v>
       </c>
       <c r="E91">
-        <v>0.002826273479333524</v>
+        <v>-0.01016502879458518</v>
       </c>
       <c r="F91">
-        <v>0.09646625562734916</v>
+        <v>0.004517122509433352</v>
       </c>
       <c r="G91">
-        <v>-0.07224705601545334</v>
+        <v>0.09091129362570541</v>
       </c>
       <c r="H91">
-        <v>0.02999114153536236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.05653880735934923</v>
+      </c>
+      <c r="I91">
+        <v>0.04306542867096972</v>
+      </c>
+      <c r="J91">
+        <v>-0.01518364125826244</v>
+      </c>
+      <c r="K91">
+        <v>-0.01137212941471085</v>
+      </c>
+      <c r="L91">
+        <v>-0.01692380370691777</v>
+      </c>
+      <c r="M91">
+        <v>0.004910346708407631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1347129031583918</v>
+        <v>-0.1748591068727141</v>
       </c>
       <c r="C92">
-        <v>0.3103643381719127</v>
+        <v>0.308211596816458</v>
       </c>
       <c r="D92">
-        <v>-0.05324553744888067</v>
+        <v>0.03445288342715659</v>
       </c>
       <c r="E92">
-        <v>0.05160571580028295</v>
+        <v>-0.0467056141259495</v>
       </c>
       <c r="F92">
-        <v>-0.04426182032414547</v>
+        <v>-0.04130262486619522</v>
       </c>
       <c r="G92">
-        <v>-0.09227239636341929</v>
+        <v>0.0213019678673998</v>
       </c>
       <c r="H92">
-        <v>0.01544997039682385</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03097295173444685</v>
+      </c>
+      <c r="I92">
+        <v>0.01014951781702139</v>
+      </c>
+      <c r="J92">
+        <v>0.04131371037107927</v>
+      </c>
+      <c r="K92">
+        <v>0.03084356337578103</v>
+      </c>
+      <c r="L92">
+        <v>-0.04314768000782099</v>
+      </c>
+      <c r="M92">
+        <v>-0.06632525006958698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.130903898046541</v>
+        <v>-0.164553974736677</v>
       </c>
       <c r="C93">
-        <v>0.2620998703329069</v>
+        <v>0.2841890377374454</v>
       </c>
       <c r="D93">
-        <v>-0.03296012556214547</v>
+        <v>-0.03110252441584884</v>
       </c>
       <c r="E93">
-        <v>0.02240986360840024</v>
+        <v>-0.007056492049658703</v>
       </c>
       <c r="F93">
-        <v>-0.0327597003239954</v>
+        <v>-0.01307084968715219</v>
       </c>
       <c r="G93">
-        <v>0.02146136667056239</v>
+        <v>-0.01497241182636789</v>
       </c>
       <c r="H93">
-        <v>-0.01087469974622082</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.03400820962692838</v>
+      </c>
+      <c r="I93">
+        <v>0.009389529496116157</v>
+      </c>
+      <c r="J93">
+        <v>-0.02185747379196532</v>
+      </c>
+      <c r="K93">
+        <v>0.03019357359521575</v>
+      </c>
+      <c r="L93">
+        <v>0.007341666151530774</v>
+      </c>
+      <c r="M93">
+        <v>0.028203757084427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09018316193889173</v>
+        <v>-0.112165303929286</v>
       </c>
       <c r="C94">
-        <v>-0.05603727090911197</v>
+        <v>-0.07250568943583112</v>
       </c>
       <c r="D94">
-        <v>-0.01210454171080213</v>
+        <v>0.01622166359966421</v>
       </c>
       <c r="E94">
-        <v>-0.006657754383074672</v>
+        <v>-0.01635983562402532</v>
       </c>
       <c r="F94">
-        <v>0.1528870229232888</v>
+        <v>0.01956459416084353</v>
       </c>
       <c r="G94">
-        <v>-0.09357961877509886</v>
+        <v>0.1327074157589524</v>
       </c>
       <c r="H94">
-        <v>0.06605791757846249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.07619682506957313</v>
+      </c>
+      <c r="I94">
+        <v>0.01878150560531194</v>
+      </c>
+      <c r="J94">
+        <v>-0.03304316826459711</v>
+      </c>
+      <c r="K94">
+        <v>-0.003676459118036045</v>
+      </c>
+      <c r="L94">
+        <v>-0.04733377672808103</v>
+      </c>
+      <c r="M94">
+        <v>-0.0056379806848634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09887597384273562</v>
+        <v>-0.1157921786432398</v>
       </c>
       <c r="C95">
-        <v>-0.06815015272365613</v>
+        <v>-0.07630394643086946</v>
       </c>
       <c r="D95">
-        <v>-0.06718326452927711</v>
+        <v>0.01999085044622619</v>
       </c>
       <c r="E95">
-        <v>0.04213887489092566</v>
+        <v>-0.06973397731200859</v>
       </c>
       <c r="F95">
-        <v>-0.06235743159421051</v>
+        <v>-0.05811770293616426</v>
       </c>
       <c r="G95">
-        <v>0.007574198215747987</v>
+        <v>-0.2388684883026675</v>
       </c>
       <c r="H95">
-        <v>-0.01449777215954477</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.09783405166439126</v>
+      </c>
+      <c r="I95">
+        <v>0.002918155995261244</v>
+      </c>
+      <c r="J95">
+        <v>-0.04488418876627082</v>
+      </c>
+      <c r="K95">
+        <v>0.1018200656248899</v>
+      </c>
+      <c r="L95">
+        <v>-0.004909057285175946</v>
+      </c>
+      <c r="M95">
+        <v>-0.4817079139496351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0005034089515373636</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0004550289822683657</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0008876188323165177</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001366809809681899</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.000756103234060356</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.002222239206948248</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.001684511331347693</v>
+      </c>
+      <c r="I96">
+        <v>0.0001369011035145583</v>
+      </c>
+      <c r="J96">
+        <v>-0.001132135220416884</v>
+      </c>
+      <c r="K96">
+        <v>0.000600540356898999</v>
+      </c>
+      <c r="L96">
+        <v>-0.0009189921890834314</v>
+      </c>
+      <c r="M96">
+        <v>0.006354381602674323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2334078461758908</v>
+        <v>-0.1601905317619942</v>
       </c>
       <c r="C97">
-        <v>0.02828437258480149</v>
+        <v>-0.005409013740232713</v>
       </c>
       <c r="D97">
-        <v>0.889800902129811</v>
+        <v>0.09063927171857278</v>
       </c>
       <c r="E97">
-        <v>-0.1168242149630176</v>
+        <v>0.9256082299323948</v>
       </c>
       <c r="F97">
-        <v>-0.1094856715076172</v>
+        <v>-0.01766352641146853</v>
       </c>
       <c r="G97">
-        <v>0.04710101318755987</v>
+        <v>-0.1421237647764882</v>
       </c>
       <c r="H97">
-        <v>-0.01778969271901697</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.008605892481028261</v>
+      </c>
+      <c r="I97">
+        <v>0.07466746627557674</v>
+      </c>
+      <c r="J97">
+        <v>0.02287852160441265</v>
+      </c>
+      <c r="K97">
+        <v>-0.05073240973527535</v>
+      </c>
+      <c r="L97">
+        <v>0.005690404531543312</v>
+      </c>
+      <c r="M97">
+        <v>-0.03612177800687007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2946154077780072</v>
+        <v>-0.2560860523679285</v>
       </c>
       <c r="C98">
-        <v>-0.1129524736085982</v>
+        <v>-0.1126614620716604</v>
       </c>
       <c r="D98">
-        <v>-0.1351351441409745</v>
+        <v>0.01212764893537029</v>
       </c>
       <c r="E98">
-        <v>-0.2540258594497366</v>
+        <v>-0.01622442827451853</v>
       </c>
       <c r="F98">
-        <v>-0.49038418551314</v>
+        <v>0.4847755716672377</v>
       </c>
       <c r="G98">
-        <v>-0.3615592903117027</v>
+        <v>-0.2045229988663738</v>
       </c>
       <c r="H98">
-        <v>-0.3523311298953227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1360153674543056</v>
+      </c>
+      <c r="I98">
+        <v>-0.07105317942705218</v>
+      </c>
+      <c r="J98">
+        <v>0.3448712444871418</v>
+      </c>
+      <c r="K98">
+        <v>0.367313153486398</v>
+      </c>
+      <c r="L98">
+        <v>0.3889245540604862</v>
+      </c>
+      <c r="M98">
+        <v>0.0319282731523642</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06008210239519804</v>
+        <v>-0.06602642279171277</v>
       </c>
       <c r="C99">
-        <v>-0.05211951208023302</v>
+        <v>-0.0549304867454831</v>
       </c>
       <c r="D99">
-        <v>-0.03212788887916653</v>
+        <v>0.007197259836787549</v>
       </c>
       <c r="E99">
-        <v>-0.0122247223310929</v>
+        <v>-0.03322290388494888</v>
       </c>
       <c r="F99">
-        <v>-0.02515753229832653</v>
+        <v>0.01887896099329661</v>
       </c>
       <c r="G99">
-        <v>-0.003287686445409827</v>
+        <v>0.01797688478117508</v>
       </c>
       <c r="H99">
-        <v>-0.08861966600213522</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01183614029636895</v>
+      </c>
+      <c r="I99">
+        <v>0.009670476008354403</v>
+      </c>
+      <c r="J99">
+        <v>0.0364855484171726</v>
+      </c>
+      <c r="K99">
+        <v>-0.05537481929382219</v>
+      </c>
+      <c r="L99">
+        <v>0.03111847748087702</v>
+      </c>
+      <c r="M99">
+        <v>-0.07003255275710057</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0001079797580044259</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.002563694705083983</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.0004297395683722949</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.001287925689846654</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.001136775825244262</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.00234881126457468</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.01056308332520679</v>
+      </c>
+      <c r="I100">
+        <v>-0.0043546272236065</v>
+      </c>
+      <c r="J100">
+        <v>0.003279558403800608</v>
+      </c>
+      <c r="K100">
+        <v>-0.001036688882005967</v>
+      </c>
+      <c r="L100">
+        <v>0.001738320746783064</v>
+      </c>
+      <c r="M100">
+        <v>0.001148053354828494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05331004811483618</v>
+        <v>-0.03978276746116904</v>
       </c>
       <c r="C101">
-        <v>-0.01987684039465624</v>
+        <v>-0.02927558862986017</v>
       </c>
       <c r="D101">
-        <v>-0.01293066152797659</v>
+        <v>-0.003305519589383914</v>
       </c>
       <c r="E101">
-        <v>0.02595698538795838</v>
+        <v>-0.02179332807774731</v>
       </c>
       <c r="F101">
-        <v>0.00541228081806076</v>
+        <v>-0.05484774907237442</v>
       </c>
       <c r="G101">
-        <v>-0.00966414123502125</v>
+        <v>0.01131711734576754</v>
       </c>
       <c r="H101">
-        <v>0.004211960257819571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.02051429648140035</v>
+      </c>
+      <c r="I101">
+        <v>0.003636511117082399</v>
+      </c>
+      <c r="J101">
+        <v>-0.01515668249384791</v>
+      </c>
+      <c r="K101">
+        <v>0.07828414348816284</v>
+      </c>
+      <c r="L101">
+        <v>0.01395776308108366</v>
+      </c>
+      <c r="M101">
+        <v>-0.01782592302246248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
